--- a/dummy.xlsx
+++ b/dummy.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\project\flutter\freelance_invoice\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA11143F-7E5C-4403-9CC2-10E8C6B3A7F4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC2BDA0A-0B25-4A1A-8B72-EEDBE60A7E7B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="240" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sale Detail (2)" sheetId="3" r:id="rId1"/>
@@ -120,84 +120,27 @@
     <t>King01</t>
   </si>
   <si>
-    <t>13-10-2022</t>
-  </si>
-  <si>
-    <t>14-10-2022</t>
-  </si>
-  <si>
     <t>Queen26</t>
   </si>
   <si>
-    <t>15-10-2022</t>
-  </si>
-  <si>
-    <t>16-10-2022</t>
-  </si>
-  <si>
     <t>តុលេខ១</t>
   </si>
   <si>
-    <t>17-10-2022</t>
-  </si>
-  <si>
     <t>តុលេខ២</t>
   </si>
   <si>
     <t>King23</t>
   </si>
   <si>
-    <t>18-10-2022</t>
-  </si>
-  <si>
     <t>តុលេខ២២</t>
   </si>
   <si>
-    <t>19-10-2022</t>
-  </si>
-  <si>
-    <t>20-10-2022</t>
-  </si>
-  <si>
-    <t>21-10-2022</t>
-  </si>
-  <si>
     <t>Queen04</t>
   </si>
   <si>
-    <t>22-10-2022</t>
-  </si>
-  <si>
-    <t>23-10-2022</t>
-  </si>
-  <si>
-    <t>24-10-2022</t>
-  </si>
-  <si>
-    <t>25-10-2022</t>
-  </si>
-  <si>
-    <t>26-10-2022</t>
-  </si>
-  <si>
     <t>King13</t>
   </si>
   <si>
-    <t>27-10-2022</t>
-  </si>
-  <si>
-    <t>28-10-2022</t>
-  </si>
-  <si>
-    <t>29-10-2022</t>
-  </si>
-  <si>
-    <t>30-10-2022</t>
-  </si>
-  <si>
-    <t>31-10-2022</t>
-  </si>
-  <si>
     <t>Room</t>
   </si>
   <si>
@@ -469,6 +412,63 @@
   </si>
   <si>
     <t>Hello World</t>
+  </si>
+  <si>
+    <t>13/10/2022</t>
+  </si>
+  <si>
+    <t>14/10/2022</t>
+  </si>
+  <si>
+    <t>15/10/2022</t>
+  </si>
+  <si>
+    <t>16/10/2022</t>
+  </si>
+  <si>
+    <t>17/10/2022</t>
+  </si>
+  <si>
+    <t>18/10/2022</t>
+  </si>
+  <si>
+    <t>19/10/2022</t>
+  </si>
+  <si>
+    <t>20/10/2022</t>
+  </si>
+  <si>
+    <t>21/10/2022</t>
+  </si>
+  <si>
+    <t>22/10/2022</t>
+  </si>
+  <si>
+    <t>23/10/2022</t>
+  </si>
+  <si>
+    <t>24/10/2022</t>
+  </si>
+  <si>
+    <t>25/10/2022</t>
+  </si>
+  <si>
+    <t>26/10/2022</t>
+  </si>
+  <si>
+    <t>27/10/2022</t>
+  </si>
+  <si>
+    <t>28/10/2022</t>
+  </si>
+  <si>
+    <t>29/10/2022</t>
+  </si>
+  <si>
+    <t>30/10/2022</t>
+  </si>
+  <si>
+    <t>31/10/2022</t>
   </si>
 </sst>
 </file>
@@ -1360,8 +1360,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:I324"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:I2"/>
+    <sheetView tabSelected="1" topLeftCell="A58" workbookViewId="0">
+      <selection activeCell="O67" sqref="O67"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1378,7 +1378,7 @@
   <sheetData>
     <row r="1" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="5" t="s">
-        <v>144</v>
+        <v>125</v>
       </c>
       <c r="B1" s="5"/>
       <c r="C1" s="5"/>
@@ -1475,7 +1475,7 @@
         <v>1</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>56</v>
+        <v>37</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>13</v>
@@ -1484,7 +1484,7 @@
         <v>44571</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>143</v>
+        <v>124</v>
       </c>
       <c r="F7" s="4">
         <v>10</v>
@@ -1504,7 +1504,7 @@
         <v>2</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>56</v>
+        <v>37</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>13</v>
@@ -1513,7 +1513,7 @@
         <v>44571</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>55</v>
+        <v>36</v>
       </c>
       <c r="F8" s="4">
         <v>1</v>
@@ -1533,7 +1533,7 @@
         <v>3</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>56</v>
+        <v>37</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>13</v>
@@ -1542,7 +1542,7 @@
         <v>44571</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>55</v>
+        <v>36</v>
       </c>
       <c r="F9" s="4">
         <v>1</v>
@@ -1562,7 +1562,7 @@
         <v>4</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>57</v>
+        <v>38</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>13</v>
@@ -1571,7 +1571,7 @@
         <v>44571</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>143</v>
+        <v>124</v>
       </c>
       <c r="F10" s="4">
         <v>14</v>
@@ -1591,7 +1591,7 @@
         <v>5</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>57</v>
+        <v>38</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>13</v>
@@ -1600,7 +1600,7 @@
         <v>44571</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>55</v>
+        <v>36</v>
       </c>
       <c r="F11" s="4">
         <v>1</v>
@@ -1620,7 +1620,7 @@
         <v>6</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>57</v>
+        <v>38</v>
       </c>
       <c r="C12" s="2" t="s">
         <v>13</v>
@@ -1629,7 +1629,7 @@
         <v>44571</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>143</v>
+        <v>124</v>
       </c>
       <c r="F12" s="4">
         <v>2</v>
@@ -1649,7 +1649,7 @@
         <v>7</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>58</v>
+        <v>39</v>
       </c>
       <c r="C13" s="2" t="s">
         <v>15</v>
@@ -1658,7 +1658,7 @@
         <v>44571</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>54</v>
+        <v>35</v>
       </c>
       <c r="F13" s="4">
         <v>1.22</v>
@@ -1678,7 +1678,7 @@
         <v>8</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>58</v>
+        <v>39</v>
       </c>
       <c r="C14" s="2" t="s">
         <v>15</v>
@@ -1687,7 +1687,7 @@
         <v>44571</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>143</v>
+        <v>124</v>
       </c>
       <c r="F14" s="4">
         <v>12</v>
@@ -1707,7 +1707,7 @@
         <v>9</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>58</v>
+        <v>39</v>
       </c>
       <c r="C15" s="2" t="s">
         <v>15</v>
@@ -1716,7 +1716,7 @@
         <v>44571</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>143</v>
+        <v>124</v>
       </c>
       <c r="F15" s="4">
         <v>2</v>
@@ -1736,7 +1736,7 @@
         <v>10</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>59</v>
+        <v>40</v>
       </c>
       <c r="C16" s="2" t="s">
         <v>16</v>
@@ -1745,7 +1745,7 @@
         <v>44602</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>54</v>
+        <v>35</v>
       </c>
       <c r="F16" s="4">
         <v>2.38</v>
@@ -1765,7 +1765,7 @@
         <v>11</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>59</v>
+        <v>40</v>
       </c>
       <c r="C17" s="2" t="s">
         <v>16</v>
@@ -1774,7 +1774,7 @@
         <v>44602</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>143</v>
+        <v>124</v>
       </c>
       <c r="F17" s="4">
         <v>1</v>
@@ -1794,7 +1794,7 @@
         <v>12</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>59</v>
+        <v>40</v>
       </c>
       <c r="C18" s="2" t="s">
         <v>16</v>
@@ -1803,7 +1803,7 @@
         <v>44602</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>55</v>
+        <v>36</v>
       </c>
       <c r="F18" s="4">
         <v>1</v>
@@ -1823,7 +1823,7 @@
         <v>13</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>59</v>
+        <v>40</v>
       </c>
       <c r="C19" s="2" t="s">
         <v>16</v>
@@ -1832,7 +1832,7 @@
         <v>44602</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>54</v>
+        <v>35</v>
       </c>
       <c r="F19" s="4">
         <v>0</v>
@@ -1852,7 +1852,7 @@
         <v>14</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>60</v>
+        <v>41</v>
       </c>
       <c r="C20" s="2" t="s">
         <v>17</v>
@@ -1861,7 +1861,7 @@
         <v>44602</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>143</v>
+        <v>124</v>
       </c>
       <c r="F20" s="4">
         <v>1</v>
@@ -1881,7 +1881,7 @@
         <v>15</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>60</v>
+        <v>41</v>
       </c>
       <c r="C21" s="2" t="s">
         <v>17</v>
@@ -1890,7 +1890,7 @@
         <v>44602</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>55</v>
+        <v>36</v>
       </c>
       <c r="F21" s="4">
         <v>1</v>
@@ -1910,7 +1910,7 @@
         <v>16</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>61</v>
+        <v>42</v>
       </c>
       <c r="C22" s="2" t="s">
         <v>16</v>
@@ -1919,7 +1919,7 @@
         <v>44630</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>54</v>
+        <v>35</v>
       </c>
       <c r="F22" s="4">
         <v>2.4900000000000002</v>
@@ -1939,7 +1939,7 @@
         <v>17</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>61</v>
+        <v>42</v>
       </c>
       <c r="C23" s="2" t="s">
         <v>16</v>
@@ -1948,7 +1948,7 @@
         <v>44630</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>55</v>
+        <v>36</v>
       </c>
       <c r="F23" s="4">
         <v>5</v>
@@ -1968,7 +1968,7 @@
         <v>18</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>61</v>
+        <v>42</v>
       </c>
       <c r="C24" s="2" t="s">
         <v>16</v>
@@ -1977,7 +1977,7 @@
         <v>44630</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>143</v>
+        <v>124</v>
       </c>
       <c r="F24" s="4">
         <v>1</v>
@@ -1997,7 +1997,7 @@
         <v>19</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>61</v>
+        <v>42</v>
       </c>
       <c r="C25" s="2" t="s">
         <v>16</v>
@@ -2006,7 +2006,7 @@
         <v>44630</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>55</v>
+        <v>36</v>
       </c>
       <c r="F25" s="4">
         <v>1</v>
@@ -2026,7 +2026,7 @@
         <v>20</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>61</v>
+        <v>42</v>
       </c>
       <c r="C26" s="2" t="s">
         <v>16</v>
@@ -2035,7 +2035,7 @@
         <v>44630</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>143</v>
+        <v>124</v>
       </c>
       <c r="F26" s="4">
         <v>1</v>
@@ -2055,7 +2055,7 @@
         <v>21</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>61</v>
+        <v>42</v>
       </c>
       <c r="C27" s="2" t="s">
         <v>16</v>
@@ -2064,7 +2064,7 @@
         <v>44630</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>55</v>
+        <v>36</v>
       </c>
       <c r="F27" s="4">
         <v>1</v>
@@ -2084,7 +2084,7 @@
         <v>22</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>61</v>
+        <v>42</v>
       </c>
       <c r="C28" s="2" t="s">
         <v>16</v>
@@ -2093,7 +2093,7 @@
         <v>44630</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>143</v>
+        <v>124</v>
       </c>
       <c r="F28" s="4">
         <v>1</v>
@@ -2113,7 +2113,7 @@
         <v>23</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>61</v>
+        <v>42</v>
       </c>
       <c r="C29" s="2" t="s">
         <v>16</v>
@@ -2122,7 +2122,7 @@
         <v>44630</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>55</v>
+        <v>36</v>
       </c>
       <c r="F29" s="4">
         <v>1</v>
@@ -2142,7 +2142,7 @@
         <v>24</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>62</v>
+        <v>43</v>
       </c>
       <c r="C30" s="2" t="s">
         <v>19</v>
@@ -2151,7 +2151,7 @@
         <v>44630</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>143</v>
+        <v>124</v>
       </c>
       <c r="F30" s="4">
         <v>6</v>
@@ -2171,7 +2171,7 @@
         <v>25</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>63</v>
+        <v>44</v>
       </c>
       <c r="C31" s="2" t="s">
         <v>13</v>
@@ -2180,7 +2180,7 @@
         <v>44661</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>143</v>
+        <v>124</v>
       </c>
       <c r="F31" s="4">
         <v>27</v>
@@ -2200,7 +2200,7 @@
         <v>26</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>63</v>
+        <v>44</v>
       </c>
       <c r="C32" s="2" t="s">
         <v>13</v>
@@ -2209,7 +2209,7 @@
         <v>44661</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>143</v>
+        <v>124</v>
       </c>
       <c r="F32" s="4">
         <v>1</v>
@@ -2229,7 +2229,7 @@
         <v>27</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>63</v>
+        <v>44</v>
       </c>
       <c r="C33" s="2" t="s">
         <v>13</v>
@@ -2238,7 +2238,7 @@
         <v>44661</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>55</v>
+        <v>36</v>
       </c>
       <c r="F33" s="4">
         <v>1</v>
@@ -2258,7 +2258,7 @@
         <v>28</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>63</v>
+        <v>44</v>
       </c>
       <c r="C34" s="2" t="s">
         <v>13</v>
@@ -2267,7 +2267,7 @@
         <v>44661</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>55</v>
+        <v>36</v>
       </c>
       <c r="F34" s="4">
         <v>1</v>
@@ -2287,7 +2287,7 @@
         <v>29</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>64</v>
+        <v>45</v>
       </c>
       <c r="C35" s="2" t="s">
         <v>15</v>
@@ -2296,7 +2296,7 @@
         <v>44661</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>143</v>
+        <v>124</v>
       </c>
       <c r="F35" s="4">
         <v>1</v>
@@ -2316,7 +2316,7 @@
         <v>30</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>64</v>
+        <v>45</v>
       </c>
       <c r="C36" s="2" t="s">
         <v>15</v>
@@ -2325,7 +2325,7 @@
         <v>44661</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>143</v>
+        <v>124</v>
       </c>
       <c r="F36" s="4">
         <v>1</v>
@@ -2345,7 +2345,7 @@
         <v>31</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>65</v>
+        <v>46</v>
       </c>
       <c r="C37" s="2" t="s">
         <v>20</v>
@@ -2354,7 +2354,7 @@
         <v>44661</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>54</v>
+        <v>35</v>
       </c>
       <c r="F37" s="4">
         <v>2.2000000000000002</v>
@@ -2374,7 +2374,7 @@
         <v>32</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>65</v>
+        <v>46</v>
       </c>
       <c r="C38" s="2" t="s">
         <v>20</v>
@@ -2383,7 +2383,7 @@
         <v>44661</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>55</v>
+        <v>36</v>
       </c>
       <c r="F38" s="4">
         <v>1</v>
@@ -2403,7 +2403,7 @@
         <v>33</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>65</v>
+        <v>46</v>
       </c>
       <c r="C39" s="2" t="s">
         <v>20</v>
@@ -2412,7 +2412,7 @@
         <v>44661</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>143</v>
+        <v>124</v>
       </c>
       <c r="F39" s="4">
         <v>1</v>
@@ -2432,7 +2432,7 @@
         <v>34</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>65</v>
+        <v>46</v>
       </c>
       <c r="C40" s="2" t="s">
         <v>20</v>
@@ -2441,7 +2441,7 @@
         <v>44661</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>55</v>
+        <v>36</v>
       </c>
       <c r="F40" s="4">
         <v>1</v>
@@ -2461,7 +2461,7 @@
         <v>35</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>65</v>
+        <v>46</v>
       </c>
       <c r="C41" s="2" t="s">
         <v>20</v>
@@ -2470,7 +2470,7 @@
         <v>44661</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>143</v>
+        <v>124</v>
       </c>
       <c r="F41" s="4">
         <v>2</v>
@@ -2490,7 +2490,7 @@
         <v>36</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>65</v>
+        <v>46</v>
       </c>
       <c r="C42" s="2" t="s">
         <v>20</v>
@@ -2499,7 +2499,7 @@
         <v>44661</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>54</v>
+        <v>35</v>
       </c>
       <c r="F42" s="4">
         <v>2</v>
@@ -2519,7 +2519,7 @@
         <v>37</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>66</v>
+        <v>47</v>
       </c>
       <c r="C43" s="2" t="s">
         <v>20</v>
@@ -2528,7 +2528,7 @@
         <v>44691</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>143</v>
+        <v>124</v>
       </c>
       <c r="F43" s="4">
         <v>1</v>
@@ -2548,7 +2548,7 @@
         <v>38</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>67</v>
+        <v>48</v>
       </c>
       <c r="C44" s="2" t="s">
         <v>20</v>
@@ -2557,7 +2557,7 @@
         <v>44691</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>54</v>
+        <v>35</v>
       </c>
       <c r="F44" s="4">
         <v>1.53</v>
@@ -2577,7 +2577,7 @@
         <v>39</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>67</v>
+        <v>48</v>
       </c>
       <c r="C45" s="2" t="s">
         <v>20</v>
@@ -2586,7 +2586,7 @@
         <v>44691</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>143</v>
+        <v>124</v>
       </c>
       <c r="F45" s="4">
         <v>1</v>
@@ -2606,7 +2606,7 @@
         <v>40</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>67</v>
+        <v>48</v>
       </c>
       <c r="C46" s="2" t="s">
         <v>20</v>
@@ -2615,7 +2615,7 @@
         <v>44691</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>55</v>
+        <v>36</v>
       </c>
       <c r="F46" s="4">
         <v>1</v>
@@ -2635,7 +2635,7 @@
         <v>41</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>68</v>
+        <v>49</v>
       </c>
       <c r="C47" s="2" t="s">
         <v>22</v>
@@ -2644,7 +2644,7 @@
         <v>44691</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>143</v>
+        <v>124</v>
       </c>
       <c r="F47" s="4">
         <v>6</v>
@@ -2664,7 +2664,7 @@
         <v>42</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>68</v>
+        <v>49</v>
       </c>
       <c r="C48" s="2" t="s">
         <v>22</v>
@@ -2673,7 +2673,7 @@
         <v>44691</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>143</v>
+        <v>124</v>
       </c>
       <c r="F48" s="4">
         <v>1</v>
@@ -2693,7 +2693,7 @@
         <v>43</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>68</v>
+        <v>49</v>
       </c>
       <c r="C49" s="2" t="s">
         <v>22</v>
@@ -2702,7 +2702,7 @@
         <v>44691</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>55</v>
+        <v>36</v>
       </c>
       <c r="F49" s="4">
         <v>1</v>
@@ -2722,7 +2722,7 @@
         <v>44</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>68</v>
+        <v>49</v>
       </c>
       <c r="C50" s="2" t="s">
         <v>22</v>
@@ -2731,7 +2731,7 @@
         <v>44691</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>143</v>
+        <v>124</v>
       </c>
       <c r="F50" s="4">
         <v>6</v>
@@ -2751,7 +2751,7 @@
         <v>45</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>69</v>
+        <v>50</v>
       </c>
       <c r="C51" s="2" t="s">
         <v>16</v>
@@ -2760,7 +2760,7 @@
         <v>44752</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>143</v>
+        <v>124</v>
       </c>
       <c r="F51" s="4">
         <v>1</v>
@@ -2780,7 +2780,7 @@
         <v>46</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>69</v>
+        <v>50</v>
       </c>
       <c r="C52" s="2" t="s">
         <v>16</v>
@@ -2789,7 +2789,7 @@
         <v>44752</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>143</v>
+        <v>124</v>
       </c>
       <c r="F52" s="4">
         <v>1</v>
@@ -2809,7 +2809,7 @@
         <v>47</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>69</v>
+        <v>50</v>
       </c>
       <c r="C53" s="2" t="s">
         <v>16</v>
@@ -2818,7 +2818,7 @@
         <v>44752</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>55</v>
+        <v>36</v>
       </c>
       <c r="F53" s="4">
         <v>1</v>
@@ -2838,7 +2838,7 @@
         <v>48</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>70</v>
+        <v>51</v>
       </c>
       <c r="C54" s="2" t="s">
         <v>23</v>
@@ -2847,7 +2847,7 @@
         <v>44783</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>54</v>
+        <v>35</v>
       </c>
       <c r="F54" s="4">
         <v>1.1200000000000001</v>
@@ -2867,7 +2867,7 @@
         <v>49</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>70</v>
+        <v>51</v>
       </c>
       <c r="C55" s="2" t="s">
         <v>23</v>
@@ -2876,7 +2876,7 @@
         <v>44783</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>143</v>
+        <v>124</v>
       </c>
       <c r="F55" s="4">
         <v>2</v>
@@ -2896,7 +2896,7 @@
         <v>50</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>70</v>
+        <v>51</v>
       </c>
       <c r="C56" s="2" t="s">
         <v>23</v>
@@ -2905,7 +2905,7 @@
         <v>44783</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>143</v>
+        <v>124</v>
       </c>
       <c r="F56" s="4">
         <v>2</v>
@@ -2925,7 +2925,7 @@
         <v>51</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>70</v>
+        <v>51</v>
       </c>
       <c r="C57" s="2" t="s">
         <v>23</v>
@@ -2934,7 +2934,7 @@
         <v>44783</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>143</v>
+        <v>124</v>
       </c>
       <c r="F57" s="4">
         <v>3</v>
@@ -2954,7 +2954,7 @@
         <v>52</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>71</v>
+        <v>52</v>
       </c>
       <c r="C58" s="2" t="s">
         <v>25</v>
@@ -2963,7 +2963,7 @@
         <v>44783</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>55</v>
+        <v>36</v>
       </c>
       <c r="F58" s="4">
         <v>1</v>
@@ -2983,7 +2983,7 @@
         <v>53</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>72</v>
+        <v>53</v>
       </c>
       <c r="C59" s="2" t="s">
         <v>13</v>
@@ -2992,7 +2992,7 @@
         <v>44783</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>143</v>
+        <v>124</v>
       </c>
       <c r="F59" s="4">
         <v>36</v>
@@ -3012,7 +3012,7 @@
         <v>54</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>72</v>
+        <v>53</v>
       </c>
       <c r="C60" s="2" t="s">
         <v>13</v>
@@ -3021,7 +3021,7 @@
         <v>44783</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>55</v>
+        <v>36</v>
       </c>
       <c r="F60" s="4">
         <v>1</v>
@@ -3041,7 +3041,7 @@
         <v>55</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>72</v>
+        <v>53</v>
       </c>
       <c r="C61" s="2" t="s">
         <v>13</v>
@@ -3050,7 +3050,7 @@
         <v>44783</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>55</v>
+        <v>36</v>
       </c>
       <c r="F61" s="4">
         <v>1</v>
@@ -3070,7 +3070,7 @@
         <v>56</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>72</v>
+        <v>53</v>
       </c>
       <c r="C62" s="2" t="s">
         <v>13</v>
@@ -3079,7 +3079,7 @@
         <v>44783</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>55</v>
+        <v>36</v>
       </c>
       <c r="F62" s="4">
         <v>1</v>
@@ -3099,7 +3099,7 @@
         <v>57</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>72</v>
+        <v>53</v>
       </c>
       <c r="C63" s="2" t="s">
         <v>13</v>
@@ -3108,7 +3108,7 @@
         <v>44783</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>55</v>
+        <v>36</v>
       </c>
       <c r="F63" s="4">
         <v>1</v>
@@ -3128,7 +3128,7 @@
         <v>58</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>73</v>
+        <v>54</v>
       </c>
       <c r="C64" s="2" t="s">
         <v>22</v>
@@ -3137,7 +3137,7 @@
         <v>44783</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>143</v>
+        <v>124</v>
       </c>
       <c r="F64" s="4">
         <v>1</v>
@@ -3157,7 +3157,7 @@
         <v>59</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>73</v>
+        <v>54</v>
       </c>
       <c r="C65" s="2" t="s">
         <v>22</v>
@@ -3166,7 +3166,7 @@
         <v>44783</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>143</v>
+        <v>124</v>
       </c>
       <c r="F65" s="4">
         <v>1</v>
@@ -3186,7 +3186,7 @@
         <v>60</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>74</v>
+        <v>55</v>
       </c>
       <c r="C66" s="2" t="s">
         <v>21</v>
@@ -3195,7 +3195,7 @@
         <v>44783</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>55</v>
+        <v>36</v>
       </c>
       <c r="F66" s="4">
         <v>2</v>
@@ -3215,7 +3215,7 @@
         <v>61</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>74</v>
+        <v>55</v>
       </c>
       <c r="C67" s="2" t="s">
         <v>21</v>
@@ -3224,7 +3224,7 @@
         <v>44783</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>55</v>
+        <v>36</v>
       </c>
       <c r="F67" s="4">
         <v>1</v>
@@ -3244,7 +3244,7 @@
         <v>62</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>74</v>
+        <v>55</v>
       </c>
       <c r="C68" s="2" t="s">
         <v>21</v>
@@ -3253,7 +3253,7 @@
         <v>44783</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>143</v>
+        <v>124</v>
       </c>
       <c r="F68" s="4">
         <v>1</v>
@@ -3273,7 +3273,7 @@
         <v>63</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>74</v>
+        <v>55</v>
       </c>
       <c r="C69" s="2" t="s">
         <v>21</v>
@@ -3282,7 +3282,7 @@
         <v>44783</v>
       </c>
       <c r="E69" s="2" t="s">
-        <v>143</v>
+        <v>124</v>
       </c>
       <c r="F69" s="4">
         <v>1</v>
@@ -3302,7 +3302,7 @@
         <v>64</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>75</v>
+        <v>56</v>
       </c>
       <c r="C70" s="2" t="s">
         <v>20</v>
@@ -3311,7 +3311,7 @@
         <v>44814</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>54</v>
+        <v>35</v>
       </c>
       <c r="F70" s="4">
         <v>4.3</v>
@@ -3331,7 +3331,7 @@
         <v>65</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>75</v>
+        <v>56</v>
       </c>
       <c r="C71" s="2" t="s">
         <v>20</v>
@@ -3340,7 +3340,7 @@
         <v>44814</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>55</v>
+        <v>36</v>
       </c>
       <c r="F71" s="4">
         <v>1</v>
@@ -3360,7 +3360,7 @@
         <v>66</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>75</v>
+        <v>56</v>
       </c>
       <c r="C72" s="2" t="s">
         <v>20</v>
@@ -3369,7 +3369,7 @@
         <v>44814</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>143</v>
+        <v>124</v>
       </c>
       <c r="F72" s="4">
         <v>1</v>
@@ -3389,7 +3389,7 @@
         <v>67</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>75</v>
+        <v>56</v>
       </c>
       <c r="C73" s="2" t="s">
         <v>20</v>
@@ -3398,7 +3398,7 @@
         <v>44814</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>55</v>
+        <v>36</v>
       </c>
       <c r="F73" s="4">
         <v>1</v>
@@ -3418,7 +3418,7 @@
         <v>68</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>75</v>
+        <v>56</v>
       </c>
       <c r="C74" s="2" t="s">
         <v>20</v>
@@ -3427,7 +3427,7 @@
         <v>44814</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>143</v>
+        <v>124</v>
       </c>
       <c r="F74" s="4">
         <v>12</v>
@@ -3447,7 +3447,7 @@
         <v>69</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>75</v>
+        <v>56</v>
       </c>
       <c r="C75" s="2" t="s">
         <v>20</v>
@@ -3456,7 +3456,7 @@
         <v>44814</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>55</v>
+        <v>36</v>
       </c>
       <c r="F75" s="4">
         <v>1</v>
@@ -3476,7 +3476,7 @@
         <v>70</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>75</v>
+        <v>56</v>
       </c>
       <c r="C76" s="2" t="s">
         <v>20</v>
@@ -3485,7 +3485,7 @@
         <v>44814</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>54</v>
+        <v>35</v>
       </c>
       <c r="F76" s="4">
         <v>2</v>
@@ -3505,7 +3505,7 @@
         <v>71</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>76</v>
+        <v>57</v>
       </c>
       <c r="C77" s="2" t="s">
         <v>21</v>
@@ -3514,7 +3514,7 @@
         <v>44814</v>
       </c>
       <c r="E77" s="2" t="s">
-        <v>55</v>
+        <v>36</v>
       </c>
       <c r="F77" s="4">
         <v>1</v>
@@ -3534,7 +3534,7 @@
         <v>72</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>76</v>
+        <v>57</v>
       </c>
       <c r="C78" s="2" t="s">
         <v>21</v>
@@ -3543,7 +3543,7 @@
         <v>44814</v>
       </c>
       <c r="E78" s="2" t="s">
-        <v>143</v>
+        <v>124</v>
       </c>
       <c r="F78" s="4">
         <v>1</v>
@@ -3563,7 +3563,7 @@
         <v>73</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>76</v>
+        <v>57</v>
       </c>
       <c r="C79" s="2" t="s">
         <v>21</v>
@@ -3572,7 +3572,7 @@
         <v>44814</v>
       </c>
       <c r="E79" s="2" t="s">
-        <v>55</v>
+        <v>36</v>
       </c>
       <c r="F79" s="4">
         <v>1</v>
@@ -3592,7 +3592,7 @@
         <v>74</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>77</v>
+        <v>58</v>
       </c>
       <c r="C80" s="2" t="s">
         <v>13</v>
@@ -3601,7 +3601,7 @@
         <v>44844</v>
       </c>
       <c r="E80" s="2" t="s">
-        <v>55</v>
+        <v>36</v>
       </c>
       <c r="F80" s="4">
         <v>1</v>
@@ -3621,7 +3621,7 @@
         <v>75</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>77</v>
+        <v>58</v>
       </c>
       <c r="C81" s="2" t="s">
         <v>13</v>
@@ -3630,7 +3630,7 @@
         <v>44844</v>
       </c>
       <c r="E81" s="2" t="s">
-        <v>143</v>
+        <v>124</v>
       </c>
       <c r="F81" s="4">
         <v>1</v>
@@ -3650,7 +3650,7 @@
         <v>76</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>78</v>
+        <v>59</v>
       </c>
       <c r="C82" s="2" t="s">
         <v>21</v>
@@ -3659,7 +3659,7 @@
         <v>44844</v>
       </c>
       <c r="E82" s="2" t="s">
-        <v>55</v>
+        <v>36</v>
       </c>
       <c r="F82" s="4">
         <v>2</v>
@@ -3679,7 +3679,7 @@
         <v>77</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>78</v>
+        <v>59</v>
       </c>
       <c r="C83" s="2" t="s">
         <v>21</v>
@@ -3688,7 +3688,7 @@
         <v>44844</v>
       </c>
       <c r="E83" s="2" t="s">
-        <v>143</v>
+        <v>124</v>
       </c>
       <c r="F83" s="4">
         <v>1</v>
@@ -3708,7 +3708,7 @@
         <v>78</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>78</v>
+        <v>59</v>
       </c>
       <c r="C84" s="2" t="s">
         <v>21</v>
@@ -3717,7 +3717,7 @@
         <v>44844</v>
       </c>
       <c r="E84" s="2" t="s">
-        <v>55</v>
+        <v>36</v>
       </c>
       <c r="F84" s="4">
         <v>1</v>
@@ -3737,7 +3737,7 @@
         <v>79</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>78</v>
+        <v>59</v>
       </c>
       <c r="C85" s="2" t="s">
         <v>21</v>
@@ -3746,7 +3746,7 @@
         <v>44844</v>
       </c>
       <c r="E85" s="2" t="s">
-        <v>55</v>
+        <v>36</v>
       </c>
       <c r="F85" s="4">
         <v>1</v>
@@ -3766,7 +3766,7 @@
         <v>80</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>79</v>
+        <v>60</v>
       </c>
       <c r="C86" s="2" t="s">
         <v>23</v>
@@ -3775,7 +3775,7 @@
         <v>44844</v>
       </c>
       <c r="E86" s="2" t="s">
-        <v>143</v>
+        <v>124</v>
       </c>
       <c r="F86" s="4">
         <v>1</v>
@@ -3795,7 +3795,7 @@
         <v>81</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>79</v>
+        <v>60</v>
       </c>
       <c r="C87" s="2" t="s">
         <v>23</v>
@@ -3804,7 +3804,7 @@
         <v>44844</v>
       </c>
       <c r="E87" s="2" t="s">
-        <v>143</v>
+        <v>124</v>
       </c>
       <c r="F87" s="4">
         <v>3</v>
@@ -3824,7 +3824,7 @@
         <v>82</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>79</v>
+        <v>60</v>
       </c>
       <c r="C88" s="2" t="s">
         <v>23</v>
@@ -3833,7 +3833,7 @@
         <v>44844</v>
       </c>
       <c r="E88" s="2" t="s">
-        <v>55</v>
+        <v>36</v>
       </c>
       <c r="F88" s="4">
         <v>1</v>
@@ -3853,7 +3853,7 @@
         <v>83</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>80</v>
+        <v>61</v>
       </c>
       <c r="C89" s="2" t="s">
         <v>17</v>
@@ -3862,7 +3862,7 @@
         <v>44844</v>
       </c>
       <c r="E89" s="2" t="s">
-        <v>55</v>
+        <v>36</v>
       </c>
       <c r="F89" s="4">
         <v>1</v>
@@ -3882,7 +3882,7 @@
         <v>84</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>80</v>
+        <v>61</v>
       </c>
       <c r="C90" s="2" t="s">
         <v>17</v>
@@ -3891,7 +3891,7 @@
         <v>44844</v>
       </c>
       <c r="E90" s="2" t="s">
-        <v>55</v>
+        <v>36</v>
       </c>
       <c r="F90" s="4">
         <v>1</v>
@@ -3911,7 +3911,7 @@
         <v>85</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>80</v>
+        <v>61</v>
       </c>
       <c r="C91" s="2" t="s">
         <v>17</v>
@@ -3920,7 +3920,7 @@
         <v>44844</v>
       </c>
       <c r="E91" s="2" t="s">
-        <v>143</v>
+        <v>124</v>
       </c>
       <c r="F91" s="4">
         <v>1</v>
@@ -3940,7 +3940,7 @@
         <v>86</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>80</v>
+        <v>61</v>
       </c>
       <c r="C92" s="2" t="s">
         <v>17</v>
@@ -3949,7 +3949,7 @@
         <v>44844</v>
       </c>
       <c r="E92" s="2" t="s">
-        <v>143</v>
+        <v>124</v>
       </c>
       <c r="F92" s="4">
         <v>2</v>
@@ -3969,7 +3969,7 @@
         <v>87</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>80</v>
+        <v>61</v>
       </c>
       <c r="C93" s="2" t="s">
         <v>17</v>
@@ -3978,7 +3978,7 @@
         <v>44844</v>
       </c>
       <c r="E93" s="2" t="s">
-        <v>143</v>
+        <v>124</v>
       </c>
       <c r="F93" s="4">
         <v>1</v>
@@ -3998,7 +3998,7 @@
         <v>88</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>80</v>
+        <v>61</v>
       </c>
       <c r="C94" s="2" t="s">
         <v>17</v>
@@ -4007,7 +4007,7 @@
         <v>44844</v>
       </c>
       <c r="E94" s="2" t="s">
-        <v>55</v>
+        <v>36</v>
       </c>
       <c r="F94" s="4">
         <v>1</v>
@@ -4027,7 +4027,7 @@
         <v>89</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>80</v>
+        <v>61</v>
       </c>
       <c r="C95" s="2" t="s">
         <v>17</v>
@@ -4036,7 +4036,7 @@
         <v>44844</v>
       </c>
       <c r="E95" s="2" t="s">
-        <v>55</v>
+        <v>36</v>
       </c>
       <c r="F95" s="4">
         <v>2</v>
@@ -4056,7 +4056,7 @@
         <v>90</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>80</v>
+        <v>61</v>
       </c>
       <c r="C96" s="2" t="s">
         <v>17</v>
@@ -4065,7 +4065,7 @@
         <v>44844</v>
       </c>
       <c r="E96" s="2" t="s">
-        <v>55</v>
+        <v>36</v>
       </c>
       <c r="F96" s="4">
         <v>1</v>
@@ -4085,7 +4085,7 @@
         <v>91</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>81</v>
+        <v>62</v>
       </c>
       <c r="C97" s="2" t="s">
         <v>13</v>
@@ -4094,7 +4094,7 @@
         <v>44875</v>
       </c>
       <c r="E97" s="2" t="s">
-        <v>143</v>
+        <v>124</v>
       </c>
       <c r="F97" s="4">
         <v>21</v>
@@ -4114,7 +4114,7 @@
         <v>92</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>81</v>
+        <v>62</v>
       </c>
       <c r="C98" s="2" t="s">
         <v>13</v>
@@ -4123,7 +4123,7 @@
         <v>44875</v>
       </c>
       <c r="E98" s="2" t="s">
-        <v>55</v>
+        <v>36</v>
       </c>
       <c r="F98" s="4">
         <v>1</v>
@@ -4143,7 +4143,7 @@
         <v>93</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>81</v>
+        <v>62</v>
       </c>
       <c r="C99" s="2" t="s">
         <v>13</v>
@@ -4152,7 +4152,7 @@
         <v>44875</v>
       </c>
       <c r="E99" s="2" t="s">
-        <v>143</v>
+        <v>124</v>
       </c>
       <c r="F99" s="4">
         <v>3</v>
@@ -4172,7 +4172,7 @@
         <v>94</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>82</v>
+        <v>63</v>
       </c>
       <c r="C100" s="2" t="s">
         <v>14</v>
@@ -4181,7 +4181,7 @@
         <v>44875</v>
       </c>
       <c r="E100" s="2" t="s">
-        <v>54</v>
+        <v>35</v>
       </c>
       <c r="F100" s="4">
         <v>2.39</v>
@@ -4201,7 +4201,7 @@
         <v>95</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>82</v>
+        <v>63</v>
       </c>
       <c r="C101" s="2" t="s">
         <v>14</v>
@@ -4210,7 +4210,7 @@
         <v>44875</v>
       </c>
       <c r="E101" s="2" t="s">
-        <v>143</v>
+        <v>124</v>
       </c>
       <c r="F101" s="4">
         <v>1</v>
@@ -4228,7 +4228,7 @@
         <v>96</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>82</v>
+        <v>63</v>
       </c>
       <c r="C102" s="2" t="s">
         <v>14</v>
@@ -4237,7 +4237,7 @@
         <v>44875</v>
       </c>
       <c r="E102" s="2" t="s">
-        <v>55</v>
+        <v>36</v>
       </c>
       <c r="F102" s="4">
         <v>1</v>
@@ -4257,7 +4257,7 @@
         <v>97</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>82</v>
+        <v>63</v>
       </c>
       <c r="C103" s="2" t="s">
         <v>14</v>
@@ -4266,7 +4266,7 @@
         <v>44875</v>
       </c>
       <c r="E103" s="2" t="s">
-        <v>55</v>
+        <v>36</v>
       </c>
       <c r="F103" s="4">
         <v>5</v>
@@ -4286,7 +4286,7 @@
         <v>98</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>82</v>
+        <v>63</v>
       </c>
       <c r="C104" s="2" t="s">
         <v>14</v>
@@ -4295,7 +4295,7 @@
         <v>44875</v>
       </c>
       <c r="E104" s="2" t="s">
-        <v>54</v>
+        <v>35</v>
       </c>
       <c r="F104" s="4">
         <v>2</v>
@@ -4315,7 +4315,7 @@
         <v>99</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>83</v>
+        <v>64</v>
       </c>
       <c r="C105" s="2" t="s">
         <v>21</v>
@@ -4324,7 +4324,7 @@
         <v>44905</v>
       </c>
       <c r="E105" s="2" t="s">
-        <v>55</v>
+        <v>36</v>
       </c>
       <c r="F105" s="4">
         <v>4</v>
@@ -4344,7 +4344,7 @@
         <v>100</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>83</v>
+        <v>64</v>
       </c>
       <c r="C106" s="2" t="s">
         <v>21</v>
@@ -4353,7 +4353,7 @@
         <v>44905</v>
       </c>
       <c r="E106" s="2" t="s">
-        <v>143</v>
+        <v>124</v>
       </c>
       <c r="F106" s="4">
         <v>1</v>
@@ -4373,7 +4373,7 @@
         <v>101</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>83</v>
+        <v>64</v>
       </c>
       <c r="C107" s="2" t="s">
         <v>21</v>
@@ -4382,7 +4382,7 @@
         <v>44905</v>
       </c>
       <c r="E107" s="2" t="s">
-        <v>55</v>
+        <v>36</v>
       </c>
       <c r="F107" s="4">
         <v>1</v>
@@ -4402,7 +4402,7 @@
         <v>102</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>83</v>
+        <v>64</v>
       </c>
       <c r="C108" s="2" t="s">
         <v>21</v>
@@ -4411,7 +4411,7 @@
         <v>44905</v>
       </c>
       <c r="E108" s="2" t="s">
-        <v>55</v>
+        <v>36</v>
       </c>
       <c r="F108" s="4">
         <v>1</v>
@@ -4431,7 +4431,7 @@
         <v>103</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>84</v>
+        <v>65</v>
       </c>
       <c r="C109" s="2" t="s">
         <v>26</v>
@@ -4440,7 +4440,7 @@
         <v>44905</v>
       </c>
       <c r="E109" s="2" t="s">
-        <v>54</v>
+        <v>35</v>
       </c>
       <c r="F109" s="4">
         <v>4.0599999999999996</v>
@@ -4460,7 +4460,7 @@
         <v>104</v>
       </c>
       <c r="B110" s="2" t="s">
-        <v>84</v>
+        <v>65</v>
       </c>
       <c r="C110" s="2" t="s">
         <v>26</v>
@@ -4469,7 +4469,7 @@
         <v>44905</v>
       </c>
       <c r="E110" s="2" t="s">
-        <v>55</v>
+        <v>36</v>
       </c>
       <c r="F110" s="4">
         <v>1</v>
@@ -4489,7 +4489,7 @@
         <v>105</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>84</v>
+        <v>65</v>
       </c>
       <c r="C111" s="2" t="s">
         <v>26</v>
@@ -4498,7 +4498,7 @@
         <v>44905</v>
       </c>
       <c r="E111" s="2" t="s">
-        <v>143</v>
+        <v>124</v>
       </c>
       <c r="F111" s="4">
         <v>1</v>
@@ -4518,7 +4518,7 @@
         <v>106</v>
       </c>
       <c r="B112" s="2" t="s">
-        <v>84</v>
+        <v>65</v>
       </c>
       <c r="C112" s="2" t="s">
         <v>26</v>
@@ -4527,7 +4527,7 @@
         <v>44905</v>
       </c>
       <c r="E112" s="2" t="s">
-        <v>54</v>
+        <v>35</v>
       </c>
       <c r="F112" s="4">
         <v>2</v>
@@ -4547,7 +4547,7 @@
         <v>107</v>
       </c>
       <c r="B113" s="2" t="s">
-        <v>85</v>
+        <v>66</v>
       </c>
       <c r="C113" s="2" t="s">
         <v>27</v>
@@ -4556,7 +4556,7 @@
         <v>44905</v>
       </c>
       <c r="E113" s="2" t="s">
-        <v>55</v>
+        <v>36</v>
       </c>
       <c r="F113" s="4">
         <v>1</v>
@@ -4576,7 +4576,7 @@
         <v>108</v>
       </c>
       <c r="B114" s="2" t="s">
-        <v>85</v>
+        <v>66</v>
       </c>
       <c r="C114" s="2" t="s">
         <v>27</v>
@@ -4585,7 +4585,7 @@
         <v>44905</v>
       </c>
       <c r="E114" s="2" t="s">
-        <v>55</v>
+        <v>36</v>
       </c>
       <c r="F114" s="4">
         <v>1</v>
@@ -4605,7 +4605,7 @@
         <v>109</v>
       </c>
       <c r="B115" s="2" t="s">
-        <v>85</v>
+        <v>66</v>
       </c>
       <c r="C115" s="2" t="s">
         <v>27</v>
@@ -4614,7 +4614,7 @@
         <v>44905</v>
       </c>
       <c r="E115" s="2" t="s">
-        <v>143</v>
+        <v>124</v>
       </c>
       <c r="F115" s="4">
         <v>1</v>
@@ -4634,7 +4634,7 @@
         <v>110</v>
       </c>
       <c r="B116" s="2" t="s">
-        <v>85</v>
+        <v>66</v>
       </c>
       <c r="C116" s="2" t="s">
         <v>27</v>
@@ -4643,7 +4643,7 @@
         <v>44905</v>
       </c>
       <c r="E116" s="2" t="s">
-        <v>143</v>
+        <v>124</v>
       </c>
       <c r="F116" s="4">
         <v>4</v>
@@ -4663,7 +4663,7 @@
         <v>111</v>
       </c>
       <c r="B117" s="2" t="s">
-        <v>85</v>
+        <v>66</v>
       </c>
       <c r="C117" s="2" t="s">
         <v>27</v>
@@ -4672,7 +4672,7 @@
         <v>44905</v>
       </c>
       <c r="E117" s="2" t="s">
-        <v>55</v>
+        <v>36</v>
       </c>
       <c r="F117" s="4">
         <v>1</v>
@@ -4692,7 +4692,7 @@
         <v>112</v>
       </c>
       <c r="B118" s="2" t="s">
-        <v>85</v>
+        <v>66</v>
       </c>
       <c r="C118" s="2" t="s">
         <v>27</v>
@@ -4701,7 +4701,7 @@
         <v>44905</v>
       </c>
       <c r="E118" s="2" t="s">
-        <v>55</v>
+        <v>36</v>
       </c>
       <c r="F118" s="4">
         <v>1</v>
@@ -4721,7 +4721,7 @@
         <v>113</v>
       </c>
       <c r="B119" s="2" t="s">
-        <v>85</v>
+        <v>66</v>
       </c>
       <c r="C119" s="2" t="s">
         <v>27</v>
@@ -4730,7 +4730,7 @@
         <v>44905</v>
       </c>
       <c r="E119" s="2" t="s">
-        <v>55</v>
+        <v>36</v>
       </c>
       <c r="F119" s="4">
         <v>2</v>
@@ -4750,7 +4750,7 @@
         <v>114</v>
       </c>
       <c r="B120" s="2" t="s">
-        <v>86</v>
+        <v>67</v>
       </c>
       <c r="C120" s="2" t="s">
         <v>23</v>
@@ -4759,7 +4759,7 @@
         <v>44905</v>
       </c>
       <c r="E120" s="2" t="s">
-        <v>143</v>
+        <v>124</v>
       </c>
       <c r="F120" s="4">
         <v>1</v>
@@ -4779,16 +4779,16 @@
         <v>115</v>
       </c>
       <c r="B121" s="2" t="s">
-        <v>87</v>
+        <v>68</v>
       </c>
       <c r="C121" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="D121" s="2" t="s">
-        <v>28</v>
+      <c r="D121" s="3" t="s">
+        <v>126</v>
       </c>
       <c r="E121" s="2" t="s">
-        <v>55</v>
+        <v>36</v>
       </c>
       <c r="F121" s="4">
         <v>1</v>
@@ -4808,16 +4808,16 @@
         <v>116</v>
       </c>
       <c r="B122" s="2" t="s">
-        <v>87</v>
+        <v>68</v>
       </c>
       <c r="C122" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="D122" s="2" t="s">
-        <v>28</v>
+      <c r="D122" s="3" t="s">
+        <v>126</v>
       </c>
       <c r="E122" s="2" t="s">
-        <v>143</v>
+        <v>124</v>
       </c>
       <c r="F122" s="4">
         <v>1</v>
@@ -4837,16 +4837,16 @@
         <v>117</v>
       </c>
       <c r="B123" s="2" t="s">
-        <v>88</v>
+        <v>69</v>
       </c>
       <c r="C123" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="D123" s="2" t="s">
-        <v>28</v>
+      <c r="D123" s="3" t="s">
+        <v>126</v>
       </c>
       <c r="E123" s="2" t="s">
-        <v>54</v>
+        <v>35</v>
       </c>
       <c r="F123" s="4">
         <v>3.24</v>
@@ -4866,16 +4866,16 @@
         <v>118</v>
       </c>
       <c r="B124" s="2" t="s">
-        <v>88</v>
+        <v>69</v>
       </c>
       <c r="C124" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="D124" s="2" t="s">
-        <v>28</v>
+      <c r="D124" s="3" t="s">
+        <v>126</v>
       </c>
       <c r="E124" s="2" t="s">
-        <v>143</v>
+        <v>124</v>
       </c>
       <c r="F124" s="4">
         <v>1</v>
@@ -4895,16 +4895,16 @@
         <v>119</v>
       </c>
       <c r="B125" s="2" t="s">
-        <v>88</v>
+        <v>69</v>
       </c>
       <c r="C125" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="D125" s="2" t="s">
-        <v>28</v>
+      <c r="D125" s="3" t="s">
+        <v>126</v>
       </c>
       <c r="E125" s="2" t="s">
-        <v>143</v>
+        <v>124</v>
       </c>
       <c r="F125" s="4">
         <v>2</v>
@@ -4924,16 +4924,16 @@
         <v>120</v>
       </c>
       <c r="B126" s="2" t="s">
-        <v>88</v>
+        <v>69</v>
       </c>
       <c r="C126" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="D126" s="2" t="s">
-        <v>28</v>
+      <c r="D126" s="3" t="s">
+        <v>126</v>
       </c>
       <c r="E126" s="2" t="s">
-        <v>54</v>
+        <v>35</v>
       </c>
       <c r="F126" s="4">
         <v>2</v>
@@ -4953,16 +4953,16 @@
         <v>121</v>
       </c>
       <c r="B127" s="2" t="s">
-        <v>89</v>
+        <v>70</v>
       </c>
       <c r="C127" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="D127" s="2" t="s">
-        <v>29</v>
+      <c r="D127" s="3" t="s">
+        <v>127</v>
       </c>
       <c r="E127" s="2" t="s">
-        <v>143</v>
+        <v>124</v>
       </c>
       <c r="F127" s="4">
         <v>24</v>
@@ -4982,16 +4982,16 @@
         <v>122</v>
       </c>
       <c r="B128" s="2" t="s">
-        <v>89</v>
+        <v>70</v>
       </c>
       <c r="C128" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="D128" s="2" t="s">
-        <v>29</v>
+      <c r="D128" s="3" t="s">
+        <v>127</v>
       </c>
       <c r="E128" s="2" t="s">
-        <v>55</v>
+        <v>36</v>
       </c>
       <c r="F128" s="4">
         <v>1</v>
@@ -5011,16 +5011,16 @@
         <v>123</v>
       </c>
       <c r="B129" s="2" t="s">
-        <v>89</v>
+        <v>70</v>
       </c>
       <c r="C129" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="D129" s="2" t="s">
-        <v>29</v>
+      <c r="D129" s="3" t="s">
+        <v>127</v>
       </c>
       <c r="E129" s="2" t="s">
-        <v>55</v>
+        <v>36</v>
       </c>
       <c r="F129" s="4">
         <v>3</v>
@@ -5040,16 +5040,16 @@
         <v>124</v>
       </c>
       <c r="B130" s="2" t="s">
-        <v>90</v>
+        <v>71</v>
       </c>
       <c r="C130" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="D130" s="2" t="s">
-        <v>29</v>
+      <c r="D130" s="3" t="s">
+        <v>127</v>
       </c>
       <c r="E130" s="2" t="s">
-        <v>143</v>
+        <v>124</v>
       </c>
       <c r="F130" s="4">
         <v>7</v>
@@ -5069,16 +5069,16 @@
         <v>125</v>
       </c>
       <c r="B131" s="2" t="s">
-        <v>90</v>
+        <v>71</v>
       </c>
       <c r="C131" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="D131" s="2" t="s">
-        <v>29</v>
+      <c r="D131" s="3" t="s">
+        <v>127</v>
       </c>
       <c r="E131" s="2" t="s">
-        <v>55</v>
+        <v>36</v>
       </c>
       <c r="F131" s="4">
         <v>1</v>
@@ -5098,16 +5098,16 @@
         <v>126</v>
       </c>
       <c r="B132" s="2" t="s">
-        <v>90</v>
+        <v>71</v>
       </c>
       <c r="C132" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="D132" s="2" t="s">
-        <v>29</v>
+      <c r="D132" s="3" t="s">
+        <v>127</v>
       </c>
       <c r="E132" s="2" t="s">
-        <v>55</v>
+        <v>36</v>
       </c>
       <c r="F132" s="4">
         <v>1</v>
@@ -5127,16 +5127,16 @@
         <v>127</v>
       </c>
       <c r="B133" s="2" t="s">
-        <v>90</v>
+        <v>71</v>
       </c>
       <c r="C133" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="D133" s="2" t="s">
-        <v>29</v>
+      <c r="D133" s="3" t="s">
+        <v>127</v>
       </c>
       <c r="E133" s="2" t="s">
-        <v>55</v>
+        <v>36</v>
       </c>
       <c r="F133" s="4">
         <v>1</v>
@@ -5156,16 +5156,16 @@
         <v>128</v>
       </c>
       <c r="B134" s="2" t="s">
-        <v>91</v>
+        <v>72</v>
       </c>
       <c r="C134" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="D134" s="2" t="s">
-        <v>29</v>
+      <c r="D134" s="3" t="s">
+        <v>127</v>
       </c>
       <c r="E134" s="2" t="s">
-        <v>55</v>
+        <v>36</v>
       </c>
       <c r="F134" s="4">
         <v>3</v>
@@ -5185,16 +5185,16 @@
         <v>129</v>
       </c>
       <c r="B135" s="2" t="s">
-        <v>91</v>
+        <v>72</v>
       </c>
       <c r="C135" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="D135" s="2" t="s">
-        <v>29</v>
+      <c r="D135" s="3" t="s">
+        <v>127</v>
       </c>
       <c r="E135" s="2" t="s">
-        <v>143</v>
+        <v>124</v>
       </c>
       <c r="F135" s="4">
         <v>1</v>
@@ -5214,16 +5214,16 @@
         <v>130</v>
       </c>
       <c r="B136" s="2" t="s">
-        <v>91</v>
+        <v>72</v>
       </c>
       <c r="C136" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="D136" s="2" t="s">
-        <v>29</v>
+      <c r="D136" s="3" t="s">
+        <v>127</v>
       </c>
       <c r="E136" s="2" t="s">
-        <v>143</v>
+        <v>124</v>
       </c>
       <c r="F136" s="4">
         <v>1</v>
@@ -5243,16 +5243,16 @@
         <v>131</v>
       </c>
       <c r="B137" s="2" t="s">
-        <v>91</v>
+        <v>72</v>
       </c>
       <c r="C137" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="D137" s="2" t="s">
-        <v>29</v>
+      <c r="D137" s="3" t="s">
+        <v>127</v>
       </c>
       <c r="E137" s="2" t="s">
-        <v>55</v>
+        <v>36</v>
       </c>
       <c r="F137" s="4">
         <v>1</v>
@@ -5272,16 +5272,16 @@
         <v>132</v>
       </c>
       <c r="B138" s="2" t="s">
-        <v>91</v>
+        <v>72</v>
       </c>
       <c r="C138" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="D138" s="2" t="s">
-        <v>29</v>
+      <c r="D138" s="3" t="s">
+        <v>127</v>
       </c>
       <c r="E138" s="2" t="s">
-        <v>55</v>
+        <v>36</v>
       </c>
       <c r="F138" s="4">
         <v>1</v>
@@ -5301,16 +5301,16 @@
         <v>133</v>
       </c>
       <c r="B139" s="2" t="s">
-        <v>91</v>
+        <v>72</v>
       </c>
       <c r="C139" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="D139" s="2" t="s">
-        <v>29</v>
+      <c r="D139" s="3" t="s">
+        <v>127</v>
       </c>
       <c r="E139" s="2" t="s">
-        <v>55</v>
+        <v>36</v>
       </c>
       <c r="F139" s="4">
         <v>1</v>
@@ -5330,16 +5330,16 @@
         <v>134</v>
       </c>
       <c r="B140" s="2" t="s">
-        <v>92</v>
+        <v>73</v>
       </c>
       <c r="C140" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="D140" s="2" t="s">
-        <v>31</v>
+      <c r="D140" s="3" t="s">
+        <v>128</v>
       </c>
       <c r="E140" s="2" t="s">
-        <v>54</v>
+        <v>35</v>
       </c>
       <c r="F140" s="4">
         <v>2.46</v>
@@ -5359,16 +5359,16 @@
         <v>135</v>
       </c>
       <c r="B141" s="2" t="s">
-        <v>92</v>
+        <v>73</v>
       </c>
       <c r="C141" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="D141" s="2" t="s">
-        <v>31</v>
+      <c r="D141" s="3" t="s">
+        <v>128</v>
       </c>
       <c r="E141" s="2" t="s">
-        <v>143</v>
+        <v>124</v>
       </c>
       <c r="F141" s="4">
         <v>1</v>
@@ -5388,16 +5388,16 @@
         <v>136</v>
       </c>
       <c r="B142" s="2" t="s">
-        <v>92</v>
+        <v>73</v>
       </c>
       <c r="C142" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="D142" s="2" t="s">
-        <v>31</v>
+      <c r="D142" s="3" t="s">
+        <v>128</v>
       </c>
       <c r="E142" s="2" t="s">
-        <v>143</v>
+        <v>124</v>
       </c>
       <c r="F142" s="4">
         <v>1</v>
@@ -5417,16 +5417,16 @@
         <v>137</v>
       </c>
       <c r="B143" s="2" t="s">
-        <v>92</v>
+        <v>73</v>
       </c>
       <c r="C143" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="D143" s="2" t="s">
-        <v>31</v>
+      <c r="D143" s="3" t="s">
+        <v>128</v>
       </c>
       <c r="E143" s="2" t="s">
-        <v>55</v>
+        <v>36</v>
       </c>
       <c r="F143" s="4">
         <v>1</v>
@@ -5446,16 +5446,16 @@
         <v>138</v>
       </c>
       <c r="B144" s="2" t="s">
-        <v>92</v>
+        <v>73</v>
       </c>
       <c r="C144" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="D144" s="2" t="s">
-        <v>31</v>
+      <c r="D144" s="3" t="s">
+        <v>128</v>
       </c>
       <c r="E144" s="2" t="s">
-        <v>54</v>
+        <v>35</v>
       </c>
       <c r="F144" s="4">
         <v>2</v>
@@ -5475,16 +5475,16 @@
         <v>139</v>
       </c>
       <c r="B145" s="2" t="s">
-        <v>93</v>
+        <v>74</v>
       </c>
       <c r="C145" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="D145" s="2" t="s">
-        <v>31</v>
+      <c r="D145" s="3" t="s">
+        <v>128</v>
       </c>
       <c r="E145" s="2" t="s">
-        <v>143</v>
+        <v>124</v>
       </c>
       <c r="F145" s="4">
         <v>1</v>
@@ -5504,16 +5504,16 @@
         <v>140</v>
       </c>
       <c r="B146" s="2" t="s">
-        <v>93</v>
+        <v>74</v>
       </c>
       <c r="C146" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="D146" s="2" t="s">
-        <v>31</v>
+      <c r="D146" s="3" t="s">
+        <v>128</v>
       </c>
       <c r="E146" s="2" t="s">
-        <v>143</v>
+        <v>124</v>
       </c>
       <c r="F146" s="4">
         <v>3</v>
@@ -5533,16 +5533,16 @@
         <v>141</v>
       </c>
       <c r="B147" s="2" t="s">
-        <v>93</v>
+        <v>74</v>
       </c>
       <c r="C147" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="D147" s="2" t="s">
-        <v>31</v>
+      <c r="D147" s="3" t="s">
+        <v>128</v>
       </c>
       <c r="E147" s="2" t="s">
-        <v>143</v>
+        <v>124</v>
       </c>
       <c r="F147" s="4">
         <v>1</v>
@@ -5562,16 +5562,16 @@
         <v>142</v>
       </c>
       <c r="B148" s="2" t="s">
-        <v>94</v>
+        <v>75</v>
       </c>
       <c r="C148" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="D148" s="2" t="s">
-        <v>31</v>
+      <c r="D148" s="3" t="s">
+        <v>128</v>
       </c>
       <c r="E148" s="2" t="s">
-        <v>55</v>
+        <v>36</v>
       </c>
       <c r="F148" s="4">
         <v>1</v>
@@ -5591,16 +5591,16 @@
         <v>143</v>
       </c>
       <c r="B149" s="2" t="s">
-        <v>94</v>
+        <v>75</v>
       </c>
       <c r="C149" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="D149" s="2" t="s">
-        <v>31</v>
+      <c r="D149" s="3" t="s">
+        <v>128</v>
       </c>
       <c r="E149" s="2" t="s">
-        <v>143</v>
+        <v>124</v>
       </c>
       <c r="F149" s="4">
         <v>5</v>
@@ -5620,16 +5620,16 @@
         <v>144</v>
       </c>
       <c r="B150" s="2" t="s">
-        <v>94</v>
+        <v>75</v>
       </c>
       <c r="C150" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="D150" s="2" t="s">
-        <v>31</v>
+      <c r="D150" s="3" t="s">
+        <v>128</v>
       </c>
       <c r="E150" s="2" t="s">
-        <v>55</v>
+        <v>36</v>
       </c>
       <c r="F150" s="4">
         <v>1</v>
@@ -5649,16 +5649,16 @@
         <v>145</v>
       </c>
       <c r="B151" s="2" t="s">
-        <v>94</v>
+        <v>75</v>
       </c>
       <c r="C151" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="D151" s="2" t="s">
-        <v>31</v>
+      <c r="D151" s="3" t="s">
+        <v>128</v>
       </c>
       <c r="E151" s="2" t="s">
-        <v>55</v>
+        <v>36</v>
       </c>
       <c r="F151" s="4">
         <v>3</v>
@@ -5678,16 +5678,16 @@
         <v>146</v>
       </c>
       <c r="B152" s="2" t="s">
-        <v>94</v>
+        <v>75</v>
       </c>
       <c r="C152" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="D152" s="2" t="s">
-        <v>31</v>
+      <c r="D152" s="3" t="s">
+        <v>128</v>
       </c>
       <c r="E152" s="2" t="s">
-        <v>143</v>
+        <v>124</v>
       </c>
       <c r="F152" s="4">
         <v>1</v>
@@ -5707,16 +5707,16 @@
         <v>147</v>
       </c>
       <c r="B153" s="2" t="s">
-        <v>95</v>
+        <v>76</v>
       </c>
       <c r="C153" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="D153" s="2" t="s">
-        <v>32</v>
+      <c r="D153" s="3" t="s">
+        <v>129</v>
       </c>
       <c r="E153" s="2" t="s">
-        <v>143</v>
+        <v>124</v>
       </c>
       <c r="F153" s="4">
         <v>1</v>
@@ -5734,16 +5734,16 @@
         <v>148</v>
       </c>
       <c r="B154" s="2" t="s">
-        <v>96</v>
+        <v>77</v>
       </c>
       <c r="C154" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="D154" s="2" t="s">
-        <v>32</v>
+      <c r="D154" s="3" t="s">
+        <v>129</v>
       </c>
       <c r="E154" s="2" t="s">
-        <v>54</v>
+        <v>35</v>
       </c>
       <c r="F154" s="4">
         <v>1.18</v>
@@ -5763,16 +5763,16 @@
         <v>149</v>
       </c>
       <c r="B155" s="2" t="s">
-        <v>96</v>
+        <v>77</v>
       </c>
       <c r="C155" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="D155" s="2" t="s">
-        <v>32</v>
+      <c r="D155" s="3" t="s">
+        <v>129</v>
       </c>
       <c r="E155" s="2" t="s">
-        <v>143</v>
+        <v>124</v>
       </c>
       <c r="F155" s="4">
         <v>2</v>
@@ -5792,16 +5792,16 @@
         <v>150</v>
       </c>
       <c r="B156" s="2" t="s">
-        <v>97</v>
+        <v>78</v>
       </c>
       <c r="C156" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="D156" s="2" t="s">
-        <v>32</v>
+      <c r="D156" s="3" t="s">
+        <v>129</v>
       </c>
       <c r="E156" s="2" t="s">
-        <v>54</v>
+        <v>35</v>
       </c>
       <c r="F156" s="4">
         <v>1.29</v>
@@ -5821,16 +5821,16 @@
         <v>151</v>
       </c>
       <c r="B157" s="2" t="s">
-        <v>97</v>
+        <v>78</v>
       </c>
       <c r="C157" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="D157" s="2" t="s">
-        <v>32</v>
+      <c r="D157" s="3" t="s">
+        <v>129</v>
       </c>
       <c r="E157" s="2" t="s">
-        <v>143</v>
+        <v>124</v>
       </c>
       <c r="F157" s="4">
         <v>1</v>
@@ -5850,16 +5850,16 @@
         <v>152</v>
       </c>
       <c r="B158" s="2" t="s">
-        <v>97</v>
+        <v>78</v>
       </c>
       <c r="C158" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="D158" s="2" t="s">
-        <v>32</v>
+      <c r="D158" s="3" t="s">
+        <v>129</v>
       </c>
       <c r="E158" s="2" t="s">
-        <v>143</v>
+        <v>124</v>
       </c>
       <c r="F158" s="4">
         <v>2</v>
@@ -5879,16 +5879,16 @@
         <v>153</v>
       </c>
       <c r="B159" s="2" t="s">
-        <v>98</v>
+        <v>79</v>
       </c>
       <c r="C159" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="D159" s="2" t="s">
-        <v>32</v>
+      <c r="D159" s="3" t="s">
+        <v>129</v>
       </c>
       <c r="E159" s="2" t="s">
-        <v>54</v>
+        <v>35</v>
       </c>
       <c r="F159" s="4">
         <v>1.34</v>
@@ -5908,16 +5908,16 @@
         <v>154</v>
       </c>
       <c r="B160" s="2" t="s">
-        <v>98</v>
+        <v>79</v>
       </c>
       <c r="C160" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="D160" s="2" t="s">
-        <v>32</v>
+      <c r="D160" s="3" t="s">
+        <v>129</v>
       </c>
       <c r="E160" s="2" t="s">
-        <v>143</v>
+        <v>124</v>
       </c>
       <c r="F160" s="4">
         <v>3</v>
@@ -5937,16 +5937,16 @@
         <v>155</v>
       </c>
       <c r="B161" s="2" t="s">
-        <v>98</v>
+        <v>79</v>
       </c>
       <c r="C161" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="D161" s="2" t="s">
-        <v>32</v>
+      <c r="D161" s="3" t="s">
+        <v>129</v>
       </c>
       <c r="E161" s="2" t="s">
-        <v>143</v>
+        <v>124</v>
       </c>
       <c r="F161" s="4">
         <v>5</v>
@@ -5966,16 +5966,16 @@
         <v>156</v>
       </c>
       <c r="B162" s="2" t="s">
-        <v>98</v>
+        <v>79</v>
       </c>
       <c r="C162" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="D162" s="2" t="s">
-        <v>32</v>
+      <c r="D162" s="3" t="s">
+        <v>129</v>
       </c>
       <c r="E162" s="2" t="s">
-        <v>55</v>
+        <v>36</v>
       </c>
       <c r="F162" s="4">
         <v>1</v>
@@ -5995,16 +5995,16 @@
         <v>157</v>
       </c>
       <c r="B163" s="2" t="s">
-        <v>98</v>
+        <v>79</v>
       </c>
       <c r="C163" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="D163" s="2" t="s">
-        <v>32</v>
+      <c r="D163" s="3" t="s">
+        <v>129</v>
       </c>
       <c r="E163" s="2" t="s">
-        <v>55</v>
+        <v>36</v>
       </c>
       <c r="F163" s="4">
         <v>1</v>
@@ -6024,16 +6024,16 @@
         <v>158</v>
       </c>
       <c r="B164" s="2" t="s">
-        <v>98</v>
+        <v>79</v>
       </c>
       <c r="C164" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="D164" s="2" t="s">
-        <v>32</v>
+      <c r="D164" s="3" t="s">
+        <v>129</v>
       </c>
       <c r="E164" s="2" t="s">
-        <v>55</v>
+        <v>36</v>
       </c>
       <c r="F164" s="4">
         <v>1</v>
@@ -6053,16 +6053,16 @@
         <v>159</v>
       </c>
       <c r="B165" s="2" t="s">
-        <v>98</v>
+        <v>79</v>
       </c>
       <c r="C165" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="D165" s="2" t="s">
-        <v>32</v>
+      <c r="D165" s="3" t="s">
+        <v>129</v>
       </c>
       <c r="E165" s="2" t="s">
-        <v>55</v>
+        <v>36</v>
       </c>
       <c r="F165" s="4">
         <v>1</v>
@@ -6082,16 +6082,16 @@
         <v>160</v>
       </c>
       <c r="B166" s="2" t="s">
-        <v>98</v>
+        <v>79</v>
       </c>
       <c r="C166" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="D166" s="2" t="s">
-        <v>32</v>
+      <c r="D166" s="3" t="s">
+        <v>129</v>
       </c>
       <c r="E166" s="2" t="s">
-        <v>55</v>
+        <v>36</v>
       </c>
       <c r="F166" s="4">
         <v>1</v>
@@ -6111,16 +6111,16 @@
         <v>161</v>
       </c>
       <c r="B167" s="2" t="s">
-        <v>99</v>
+        <v>80</v>
       </c>
       <c r="C167" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="D167" s="2" t="s">
-        <v>34</v>
+        <v>29</v>
+      </c>
+      <c r="D167" s="3" t="s">
+        <v>130</v>
       </c>
       <c r="E167" s="2" t="s">
-        <v>55</v>
+        <v>36</v>
       </c>
       <c r="F167" s="4">
         <v>2</v>
@@ -6140,16 +6140,16 @@
         <v>162</v>
       </c>
       <c r="B168" s="2" t="s">
-        <v>99</v>
+        <v>80</v>
       </c>
       <c r="C168" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="D168" s="2" t="s">
-        <v>34</v>
+        <v>29</v>
+      </c>
+      <c r="D168" s="3" t="s">
+        <v>130</v>
       </c>
       <c r="E168" s="2" t="s">
-        <v>55</v>
+        <v>36</v>
       </c>
       <c r="F168" s="4">
         <v>1</v>
@@ -6169,16 +6169,16 @@
         <v>163</v>
       </c>
       <c r="B169" s="2" t="s">
-        <v>100</v>
+        <v>81</v>
       </c>
       <c r="C169" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="D169" s="2" t="s">
-        <v>34</v>
+        <v>30</v>
+      </c>
+      <c r="D169" s="3" t="s">
+        <v>130</v>
       </c>
       <c r="E169" s="2" t="s">
-        <v>143</v>
+        <v>124</v>
       </c>
       <c r="F169" s="4">
         <v>10</v>
@@ -6198,16 +6198,16 @@
         <v>164</v>
       </c>
       <c r="B170" s="2" t="s">
-        <v>100</v>
+        <v>81</v>
       </c>
       <c r="C170" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="D170" s="2" t="s">
-        <v>34</v>
+        <v>30</v>
+      </c>
+      <c r="D170" s="3" t="s">
+        <v>130</v>
       </c>
       <c r="E170" s="2" t="s">
-        <v>55</v>
+        <v>36</v>
       </c>
       <c r="F170" s="4">
         <v>2</v>
@@ -6227,16 +6227,16 @@
         <v>165</v>
       </c>
       <c r="B171" s="2" t="s">
-        <v>100</v>
+        <v>81</v>
       </c>
       <c r="C171" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="D171" s="2" t="s">
-        <v>34</v>
+        <v>30</v>
+      </c>
+      <c r="D171" s="3" t="s">
+        <v>130</v>
       </c>
       <c r="E171" s="2" t="s">
-        <v>143</v>
+        <v>124</v>
       </c>
       <c r="F171" s="4">
         <v>1</v>
@@ -6256,16 +6256,16 @@
         <v>166</v>
       </c>
       <c r="B172" s="2" t="s">
-        <v>100</v>
+        <v>81</v>
       </c>
       <c r="C172" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="D172" s="2" t="s">
-        <v>34</v>
+        <v>30</v>
+      </c>
+      <c r="D172" s="3" t="s">
+        <v>130</v>
       </c>
       <c r="E172" s="2" t="s">
-        <v>55</v>
+        <v>36</v>
       </c>
       <c r="F172" s="4">
         <v>1</v>
@@ -6285,16 +6285,16 @@
         <v>167</v>
       </c>
       <c r="B173" s="2" t="s">
-        <v>100</v>
+        <v>81</v>
       </c>
       <c r="C173" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="D173" s="2" t="s">
-        <v>34</v>
+        <v>30</v>
+      </c>
+      <c r="D173" s="3" t="s">
+        <v>130</v>
       </c>
       <c r="E173" s="2" t="s">
-        <v>55</v>
+        <v>36</v>
       </c>
       <c r="F173" s="4">
         <v>1</v>
@@ -6314,16 +6314,16 @@
         <v>168</v>
       </c>
       <c r="B174" s="2" t="s">
-        <v>101</v>
+        <v>82</v>
       </c>
       <c r="C174" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="D174" s="2" t="s">
-        <v>34</v>
+      <c r="D174" s="3" t="s">
+        <v>130</v>
       </c>
       <c r="E174" s="2" t="s">
-        <v>54</v>
+        <v>35</v>
       </c>
       <c r="F174" s="4">
         <v>1.1000000000000001</v>
@@ -6343,16 +6343,16 @@
         <v>169</v>
       </c>
       <c r="B175" s="2" t="s">
-        <v>101</v>
+        <v>82</v>
       </c>
       <c r="C175" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="D175" s="2" t="s">
-        <v>34</v>
+      <c r="D175" s="3" t="s">
+        <v>130</v>
       </c>
       <c r="E175" s="2" t="s">
-        <v>143</v>
+        <v>124</v>
       </c>
       <c r="F175" s="4">
         <v>3</v>
@@ -6372,16 +6372,16 @@
         <v>170</v>
       </c>
       <c r="B176" s="2" t="s">
-        <v>101</v>
+        <v>82</v>
       </c>
       <c r="C176" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="D176" s="2" t="s">
-        <v>34</v>
+      <c r="D176" s="3" t="s">
+        <v>130</v>
       </c>
       <c r="E176" s="2" t="s">
-        <v>143</v>
+        <v>124</v>
       </c>
       <c r="F176" s="4">
         <v>1</v>
@@ -6401,16 +6401,16 @@
         <v>171</v>
       </c>
       <c r="B177" s="2" t="s">
-        <v>102</v>
+        <v>83</v>
       </c>
       <c r="C177" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="D177" s="2" t="s">
-        <v>34</v>
+        <v>31</v>
+      </c>
+      <c r="D177" s="3" t="s">
+        <v>130</v>
       </c>
       <c r="E177" s="2" t="s">
-        <v>55</v>
+        <v>36</v>
       </c>
       <c r="F177" s="4">
         <v>1</v>
@@ -6430,16 +6430,16 @@
         <v>172</v>
       </c>
       <c r="B178" s="2" t="s">
-        <v>102</v>
+        <v>83</v>
       </c>
       <c r="C178" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="D178" s="2" t="s">
-        <v>34</v>
+        <v>31</v>
+      </c>
+      <c r="D178" s="3" t="s">
+        <v>130</v>
       </c>
       <c r="E178" s="2" t="s">
-        <v>143</v>
+        <v>124</v>
       </c>
       <c r="F178" s="4">
         <v>2</v>
@@ -6459,16 +6459,16 @@
         <v>173</v>
       </c>
       <c r="B179" s="2" t="s">
-        <v>102</v>
+        <v>83</v>
       </c>
       <c r="C179" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="D179" s="2" t="s">
-        <v>34</v>
+        <v>31</v>
+      </c>
+      <c r="D179" s="3" t="s">
+        <v>130</v>
       </c>
       <c r="E179" s="2" t="s">
-        <v>143</v>
+        <v>124</v>
       </c>
       <c r="F179" s="4">
         <v>1</v>
@@ -6488,16 +6488,16 @@
         <v>174</v>
       </c>
       <c r="B180" s="2" t="s">
-        <v>103</v>
+        <v>84</v>
       </c>
       <c r="C180" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="D180" s="2" t="s">
-        <v>37</v>
+      <c r="D180" s="3" t="s">
+        <v>131</v>
       </c>
       <c r="E180" s="2" t="s">
-        <v>55</v>
+        <v>36</v>
       </c>
       <c r="F180" s="4">
         <v>1</v>
@@ -6517,16 +6517,16 @@
         <v>175</v>
       </c>
       <c r="B181" s="2" t="s">
-        <v>103</v>
+        <v>84</v>
       </c>
       <c r="C181" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="D181" s="2" t="s">
-        <v>37</v>
+      <c r="D181" s="3" t="s">
+        <v>131</v>
       </c>
       <c r="E181" s="2" t="s">
-        <v>55</v>
+        <v>36</v>
       </c>
       <c r="F181" s="4">
         <v>1</v>
@@ -6546,16 +6546,16 @@
         <v>176</v>
       </c>
       <c r="B182" s="2" t="s">
-        <v>104</v>
+        <v>85</v>
       </c>
       <c r="C182" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="D182" s="2" t="s">
-        <v>37</v>
+        <v>32</v>
+      </c>
+      <c r="D182" s="3" t="s">
+        <v>131</v>
       </c>
       <c r="E182" s="2" t="s">
-        <v>55</v>
+        <v>36</v>
       </c>
       <c r="F182" s="4">
         <v>1</v>
@@ -6575,16 +6575,16 @@
         <v>177</v>
       </c>
       <c r="B183" s="2" t="s">
-        <v>105</v>
+        <v>86</v>
       </c>
       <c r="C183" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="D183" s="2" t="s">
-        <v>37</v>
+      <c r="D183" s="3" t="s">
+        <v>131</v>
       </c>
       <c r="E183" s="2" t="s">
-        <v>55</v>
+        <v>36</v>
       </c>
       <c r="F183" s="4">
         <v>1</v>
@@ -6604,16 +6604,16 @@
         <v>178</v>
       </c>
       <c r="B184" s="2" t="s">
-        <v>105</v>
+        <v>86</v>
       </c>
       <c r="C184" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="D184" s="2" t="s">
-        <v>37</v>
+      <c r="D184" s="3" t="s">
+        <v>131</v>
       </c>
       <c r="E184" s="2" t="s">
-        <v>143</v>
+        <v>124</v>
       </c>
       <c r="F184" s="4">
         <v>1</v>
@@ -6633,16 +6633,16 @@
         <v>179</v>
       </c>
       <c r="B185" s="2" t="s">
-        <v>105</v>
+        <v>86</v>
       </c>
       <c r="C185" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="D185" s="2" t="s">
-        <v>37</v>
+      <c r="D185" s="3" t="s">
+        <v>131</v>
       </c>
       <c r="E185" s="2" t="s">
-        <v>55</v>
+        <v>36</v>
       </c>
       <c r="F185" s="4">
         <v>1</v>
@@ -6662,16 +6662,16 @@
         <v>180</v>
       </c>
       <c r="B186" s="2" t="s">
-        <v>105</v>
+        <v>86</v>
       </c>
       <c r="C186" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="D186" s="2" t="s">
-        <v>37</v>
+      <c r="D186" s="3" t="s">
+        <v>131</v>
       </c>
       <c r="E186" s="2" t="s">
-        <v>143</v>
+        <v>124</v>
       </c>
       <c r="F186" s="4">
         <v>4</v>
@@ -6691,16 +6691,16 @@
         <v>181</v>
       </c>
       <c r="B187" s="2" t="s">
-        <v>105</v>
+        <v>86</v>
       </c>
       <c r="C187" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="D187" s="2" t="s">
-        <v>37</v>
+      <c r="D187" s="3" t="s">
+        <v>131</v>
       </c>
       <c r="E187" s="2" t="s">
-        <v>143</v>
+        <v>124</v>
       </c>
       <c r="F187" s="4">
         <v>12</v>
@@ -6720,16 +6720,16 @@
         <v>182</v>
       </c>
       <c r="B188" s="2" t="s">
-        <v>105</v>
+        <v>86</v>
       </c>
       <c r="C188" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="D188" s="2" t="s">
-        <v>37</v>
+      <c r="D188" s="3" t="s">
+        <v>131</v>
       </c>
       <c r="E188" s="2" t="s">
-        <v>55</v>
+        <v>36</v>
       </c>
       <c r="F188" s="4">
         <v>1</v>
@@ -6749,16 +6749,16 @@
         <v>183</v>
       </c>
       <c r="B189" s="2" t="s">
-        <v>106</v>
+        <v>87</v>
       </c>
       <c r="C189" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="D189" s="2" t="s">
-        <v>37</v>
+      <c r="D189" s="3" t="s">
+        <v>131</v>
       </c>
       <c r="E189" s="2" t="s">
-        <v>143</v>
+        <v>124</v>
       </c>
       <c r="F189" s="4">
         <v>1</v>
@@ -6778,16 +6778,16 @@
         <v>184</v>
       </c>
       <c r="B190" s="2" t="s">
-        <v>106</v>
+        <v>87</v>
       </c>
       <c r="C190" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="D190" s="2" t="s">
-        <v>37</v>
+      <c r="D190" s="3" t="s">
+        <v>131</v>
       </c>
       <c r="E190" s="2" t="s">
-        <v>143</v>
+        <v>124</v>
       </c>
       <c r="F190" s="4">
         <v>3</v>
@@ -6807,16 +6807,16 @@
         <v>185</v>
       </c>
       <c r="B191" s="2" t="s">
-        <v>107</v>
+        <v>88</v>
       </c>
       <c r="C191" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="D191" s="2" t="s">
-        <v>39</v>
+      <c r="D191" s="3" t="s">
+        <v>132</v>
       </c>
       <c r="E191" s="2" t="s">
-        <v>55</v>
+        <v>36</v>
       </c>
       <c r="F191" s="4">
         <v>5</v>
@@ -6836,16 +6836,16 @@
         <v>186</v>
       </c>
       <c r="B192" s="2" t="s">
-        <v>107</v>
+        <v>88</v>
       </c>
       <c r="C192" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="D192" s="2" t="s">
-        <v>39</v>
+      <c r="D192" s="3" t="s">
+        <v>132</v>
       </c>
       <c r="E192" s="2" t="s">
-        <v>55</v>
+        <v>36</v>
       </c>
       <c r="F192" s="4">
         <v>1</v>
@@ -6865,16 +6865,16 @@
         <v>187</v>
       </c>
       <c r="B193" s="2" t="s">
-        <v>107</v>
+        <v>88</v>
       </c>
       <c r="C193" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="D193" s="2" t="s">
-        <v>39</v>
+      <c r="D193" s="3" t="s">
+        <v>132</v>
       </c>
       <c r="E193" s="2" t="s">
-        <v>143</v>
+        <v>124</v>
       </c>
       <c r="F193" s="4">
         <v>1</v>
@@ -6894,16 +6894,16 @@
         <v>188</v>
       </c>
       <c r="B194" s="2" t="s">
-        <v>107</v>
+        <v>88</v>
       </c>
       <c r="C194" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="D194" s="2" t="s">
-        <v>39</v>
+      <c r="D194" s="3" t="s">
+        <v>132</v>
       </c>
       <c r="E194" s="2" t="s">
-        <v>55</v>
+        <v>36</v>
       </c>
       <c r="F194" s="4">
         <v>1</v>
@@ -6923,16 +6923,16 @@
         <v>189</v>
       </c>
       <c r="B195" s="2" t="s">
-        <v>108</v>
+        <v>89</v>
       </c>
       <c r="C195" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="D195" s="2" t="s">
-        <v>40</v>
+      <c r="D195" s="3" t="s">
+        <v>133</v>
       </c>
       <c r="E195" s="2" t="s">
-        <v>143</v>
+        <v>124</v>
       </c>
       <c r="F195" s="4">
         <v>48</v>
@@ -6952,16 +6952,16 @@
         <v>190</v>
       </c>
       <c r="B196" s="2" t="s">
-        <v>108</v>
+        <v>89</v>
       </c>
       <c r="C196" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="D196" s="2" t="s">
-        <v>40</v>
+      <c r="D196" s="3" t="s">
+        <v>133</v>
       </c>
       <c r="E196" s="2" t="s">
-        <v>55</v>
+        <v>36</v>
       </c>
       <c r="F196" s="4">
         <v>1</v>
@@ -6981,16 +6981,16 @@
         <v>191</v>
       </c>
       <c r="B197" s="2" t="s">
-        <v>108</v>
+        <v>89</v>
       </c>
       <c r="C197" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="D197" s="2" t="s">
-        <v>40</v>
+      <c r="D197" s="3" t="s">
+        <v>133</v>
       </c>
       <c r="E197" s="2" t="s">
-        <v>55</v>
+        <v>36</v>
       </c>
       <c r="F197" s="4">
         <v>1</v>
@@ -7010,16 +7010,16 @@
         <v>192</v>
       </c>
       <c r="B198" s="2" t="s">
-        <v>108</v>
+        <v>89</v>
       </c>
       <c r="C198" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="D198" s="2" t="s">
-        <v>40</v>
+      <c r="D198" s="3" t="s">
+        <v>133</v>
       </c>
       <c r="E198" s="2" t="s">
-        <v>143</v>
+        <v>124</v>
       </c>
       <c r="F198" s="4">
         <v>3</v>
@@ -7039,16 +7039,16 @@
         <v>193</v>
       </c>
       <c r="B199" s="2" t="s">
-        <v>108</v>
+        <v>89</v>
       </c>
       <c r="C199" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="D199" s="2" t="s">
-        <v>40</v>
+      <c r="D199" s="3" t="s">
+        <v>133</v>
       </c>
       <c r="E199" s="2" t="s">
-        <v>55</v>
+        <v>36</v>
       </c>
       <c r="F199" s="4">
         <v>1</v>
@@ -7068,16 +7068,16 @@
         <v>194</v>
       </c>
       <c r="B200" s="2" t="s">
-        <v>109</v>
+        <v>90</v>
       </c>
       <c r="C200" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="D200" s="2" t="s">
-        <v>41</v>
+      <c r="D200" s="3" t="s">
+        <v>134</v>
       </c>
       <c r="E200" s="2" t="s">
-        <v>143</v>
+        <v>124</v>
       </c>
       <c r="F200" s="4">
         <v>12</v>
@@ -7097,16 +7097,16 @@
         <v>195</v>
       </c>
       <c r="B201" s="2" t="s">
-        <v>109</v>
+        <v>90</v>
       </c>
       <c r="C201" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="D201" s="2" t="s">
-        <v>41</v>
+      <c r="D201" s="3" t="s">
+        <v>134</v>
       </c>
       <c r="E201" s="2" t="s">
-        <v>55</v>
+        <v>36</v>
       </c>
       <c r="F201" s="4">
         <v>1</v>
@@ -7126,16 +7126,16 @@
         <v>196</v>
       </c>
       <c r="B202" s="2" t="s">
-        <v>109</v>
+        <v>90</v>
       </c>
       <c r="C202" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="D202" s="2" t="s">
-        <v>41</v>
+      <c r="D202" s="3" t="s">
+        <v>134</v>
       </c>
       <c r="E202" s="2" t="s">
-        <v>143</v>
+        <v>124</v>
       </c>
       <c r="F202" s="4">
         <v>1</v>
@@ -7155,16 +7155,16 @@
         <v>197</v>
       </c>
       <c r="B203" s="2" t="s">
-        <v>109</v>
+        <v>90</v>
       </c>
       <c r="C203" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="D203" s="2" t="s">
-        <v>41</v>
+      <c r="D203" s="3" t="s">
+        <v>134</v>
       </c>
       <c r="E203" s="2" t="s">
-        <v>55</v>
+        <v>36</v>
       </c>
       <c r="F203" s="4">
         <v>1</v>
@@ -7184,16 +7184,16 @@
         <v>198</v>
       </c>
       <c r="B204" s="2" t="s">
-        <v>109</v>
+        <v>90</v>
       </c>
       <c r="C204" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="D204" s="2" t="s">
-        <v>41</v>
+      <c r="D204" s="3" t="s">
+        <v>134</v>
       </c>
       <c r="E204" s="2" t="s">
-        <v>55</v>
+        <v>36</v>
       </c>
       <c r="F204" s="4">
         <v>1</v>
@@ -7213,16 +7213,16 @@
         <v>199</v>
       </c>
       <c r="B205" s="2" t="s">
-        <v>110</v>
+        <v>91</v>
       </c>
       <c r="C205" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="D205" s="2" t="s">
-        <v>41</v>
+      <c r="D205" s="3" t="s">
+        <v>134</v>
       </c>
       <c r="E205" s="2" t="s">
-        <v>143</v>
+        <v>124</v>
       </c>
       <c r="F205" s="4">
         <v>1</v>
@@ -7242,16 +7242,16 @@
         <v>200</v>
       </c>
       <c r="B206" s="2" t="s">
-        <v>110</v>
+        <v>91</v>
       </c>
       <c r="C206" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="D206" s="2" t="s">
-        <v>41</v>
+      <c r="D206" s="3" t="s">
+        <v>134</v>
       </c>
       <c r="E206" s="2" t="s">
-        <v>55</v>
+        <v>36</v>
       </c>
       <c r="F206" s="4">
         <v>2</v>
@@ -7271,16 +7271,16 @@
         <v>201</v>
       </c>
       <c r="B207" s="2" t="s">
-        <v>110</v>
+        <v>91</v>
       </c>
       <c r="C207" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="D207" s="2" t="s">
-        <v>41</v>
+      <c r="D207" s="3" t="s">
+        <v>134</v>
       </c>
       <c r="E207" s="2" t="s">
-        <v>143</v>
+        <v>124</v>
       </c>
       <c r="F207" s="4">
         <v>2</v>
@@ -7300,16 +7300,16 @@
         <v>202</v>
       </c>
       <c r="B208" s="2" t="s">
-        <v>111</v>
+        <v>92</v>
       </c>
       <c r="C208" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="D208" s="2" t="s">
-        <v>41</v>
+      <c r="D208" s="3" t="s">
+        <v>134</v>
       </c>
       <c r="E208" s="2" t="s">
-        <v>143</v>
+        <v>124</v>
       </c>
       <c r="F208" s="4">
         <v>1</v>
@@ -7329,16 +7329,16 @@
         <v>203</v>
       </c>
       <c r="B209" s="2" t="s">
-        <v>111</v>
+        <v>92</v>
       </c>
       <c r="C209" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="D209" s="2" t="s">
-        <v>41</v>
+      <c r="D209" s="3" t="s">
+        <v>134</v>
       </c>
       <c r="E209" s="2" t="s">
-        <v>143</v>
+        <v>124</v>
       </c>
       <c r="F209" s="4">
         <v>1</v>
@@ -7358,16 +7358,16 @@
         <v>204</v>
       </c>
       <c r="B210" s="2" t="s">
-        <v>112</v>
+        <v>93</v>
       </c>
       <c r="C210" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="D210" s="2" t="s">
-        <v>41</v>
+        <v>33</v>
+      </c>
+      <c r="D210" s="3" t="s">
+        <v>134</v>
       </c>
       <c r="E210" s="2" t="s">
-        <v>54</v>
+        <v>35</v>
       </c>
       <c r="F210" s="4">
         <v>0.52</v>
@@ -7387,16 +7387,16 @@
         <v>205</v>
       </c>
       <c r="B211" s="2" t="s">
-        <v>112</v>
+        <v>93</v>
       </c>
       <c r="C211" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="D211" s="2" t="s">
-        <v>41</v>
+        <v>33</v>
+      </c>
+      <c r="D211" s="3" t="s">
+        <v>134</v>
       </c>
       <c r="E211" s="2" t="s">
-        <v>143</v>
+        <v>124</v>
       </c>
       <c r="F211" s="4">
         <v>8</v>
@@ -7416,16 +7416,16 @@
         <v>206</v>
       </c>
       <c r="B212" s="2" t="s">
-        <v>112</v>
+        <v>93</v>
       </c>
       <c r="C212" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="D212" s="2" t="s">
-        <v>41</v>
+        <v>33</v>
+      </c>
+      <c r="D212" s="3" t="s">
+        <v>134</v>
       </c>
       <c r="E212" s="2" t="s">
-        <v>143</v>
+        <v>124</v>
       </c>
       <c r="F212" s="4">
         <v>3</v>
@@ -7445,16 +7445,16 @@
         <v>207</v>
       </c>
       <c r="B213" s="2" t="s">
-        <v>113</v>
+        <v>94</v>
       </c>
       <c r="C213" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="D213" s="2" t="s">
-        <v>43</v>
+      <c r="D213" s="3" t="s">
+        <v>135</v>
       </c>
       <c r="E213" s="2" t="s">
-        <v>143</v>
+        <v>124</v>
       </c>
       <c r="F213" s="4">
         <v>24</v>
@@ -7474,16 +7474,16 @@
         <v>208</v>
       </c>
       <c r="B214" s="2" t="s">
-        <v>113</v>
+        <v>94</v>
       </c>
       <c r="C214" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="D214" s="2" t="s">
-        <v>43</v>
+      <c r="D214" s="3" t="s">
+        <v>135</v>
       </c>
       <c r="E214" s="2" t="s">
-        <v>55</v>
+        <v>36</v>
       </c>
       <c r="F214" s="4">
         <v>1</v>
@@ -7503,16 +7503,16 @@
         <v>209</v>
       </c>
       <c r="B215" s="2" t="s">
-        <v>113</v>
+        <v>94</v>
       </c>
       <c r="C215" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="D215" s="2" t="s">
-        <v>43</v>
+      <c r="D215" s="3" t="s">
+        <v>135</v>
       </c>
       <c r="E215" s="2" t="s">
-        <v>55</v>
+        <v>36</v>
       </c>
       <c r="F215" s="4">
         <v>1</v>
@@ -7532,16 +7532,16 @@
         <v>210</v>
       </c>
       <c r="B216" s="2" t="s">
-        <v>113</v>
+        <v>94</v>
       </c>
       <c r="C216" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="D216" s="2" t="s">
-        <v>43</v>
+      <c r="D216" s="3" t="s">
+        <v>135</v>
       </c>
       <c r="E216" s="2" t="s">
-        <v>55</v>
+        <v>36</v>
       </c>
       <c r="F216" s="4">
         <v>1</v>
@@ -7561,16 +7561,16 @@
         <v>211</v>
       </c>
       <c r="B217" s="2" t="s">
-        <v>113</v>
+        <v>94</v>
       </c>
       <c r="C217" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="D217" s="2" t="s">
-        <v>43</v>
+      <c r="D217" s="3" t="s">
+        <v>135</v>
       </c>
       <c r="E217" s="2" t="s">
-        <v>55</v>
+        <v>36</v>
       </c>
       <c r="F217" s="4">
         <v>1</v>
@@ -7590,16 +7590,16 @@
         <v>212</v>
       </c>
       <c r="B218" s="2" t="s">
-        <v>114</v>
+        <v>95</v>
       </c>
       <c r="C218" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="D218" s="2" t="s">
-        <v>43</v>
+      <c r="D218" s="3" t="s">
+        <v>135</v>
       </c>
       <c r="E218" s="2" t="s">
-        <v>143</v>
+        <v>124</v>
       </c>
       <c r="F218" s="4">
         <v>1</v>
@@ -7619,16 +7619,16 @@
         <v>213</v>
       </c>
       <c r="B219" s="2" t="s">
-        <v>114</v>
+        <v>95</v>
       </c>
       <c r="C219" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="D219" s="2" t="s">
-        <v>43</v>
+      <c r="D219" s="3" t="s">
+        <v>135</v>
       </c>
       <c r="E219" s="2" t="s">
-        <v>143</v>
+        <v>124</v>
       </c>
       <c r="F219" s="4">
         <v>3</v>
@@ -7648,16 +7648,16 @@
         <v>214</v>
       </c>
       <c r="B220" s="2" t="s">
-        <v>114</v>
+        <v>95</v>
       </c>
       <c r="C220" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="D220" s="2" t="s">
-        <v>43</v>
+      <c r="D220" s="3" t="s">
+        <v>135</v>
       </c>
       <c r="E220" s="2" t="s">
-        <v>55</v>
+        <v>36</v>
       </c>
       <c r="F220" s="4">
         <v>1</v>
@@ -7677,16 +7677,16 @@
         <v>215</v>
       </c>
       <c r="B221" s="2" t="s">
-        <v>115</v>
+        <v>96</v>
       </c>
       <c r="C221" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="D221" s="2" t="s">
-        <v>43</v>
+      <c r="D221" s="3" t="s">
+        <v>135</v>
       </c>
       <c r="E221" s="2" t="s">
-        <v>55</v>
+        <v>36</v>
       </c>
       <c r="F221" s="4">
         <v>2</v>
@@ -7706,16 +7706,16 @@
         <v>216</v>
       </c>
       <c r="B222" s="2" t="s">
-        <v>115</v>
+        <v>96</v>
       </c>
       <c r="C222" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="D222" s="2" t="s">
-        <v>43</v>
+      <c r="D222" s="3" t="s">
+        <v>135</v>
       </c>
       <c r="E222" s="2" t="s">
-        <v>143</v>
+        <v>124</v>
       </c>
       <c r="F222" s="4">
         <v>1</v>
@@ -7735,16 +7735,16 @@
         <v>217</v>
       </c>
       <c r="B223" s="2" t="s">
-        <v>115</v>
+        <v>96</v>
       </c>
       <c r="C223" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="D223" s="2" t="s">
-        <v>43</v>
+      <c r="D223" s="3" t="s">
+        <v>135</v>
       </c>
       <c r="E223" s="2" t="s">
-        <v>143</v>
+        <v>124</v>
       </c>
       <c r="F223" s="4">
         <v>3</v>
@@ -7764,16 +7764,16 @@
         <v>218</v>
       </c>
       <c r="B224" s="2" t="s">
-        <v>115</v>
+        <v>96</v>
       </c>
       <c r="C224" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="D224" s="2" t="s">
-        <v>43</v>
+      <c r="D224" s="3" t="s">
+        <v>135</v>
       </c>
       <c r="E224" s="2" t="s">
-        <v>55</v>
+        <v>36</v>
       </c>
       <c r="F224" s="4">
         <v>1</v>
@@ -7793,16 +7793,16 @@
         <v>219</v>
       </c>
       <c r="B225" s="2" t="s">
-        <v>115</v>
+        <v>96</v>
       </c>
       <c r="C225" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="D225" s="2" t="s">
-        <v>43</v>
+      <c r="D225" s="3" t="s">
+        <v>135</v>
       </c>
       <c r="E225" s="2" t="s">
-        <v>55</v>
+        <v>36</v>
       </c>
       <c r="F225" s="4">
         <v>1</v>
@@ -7822,16 +7822,16 @@
         <v>220</v>
       </c>
       <c r="B226" s="2" t="s">
-        <v>116</v>
+        <v>97</v>
       </c>
       <c r="C226" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="D226" s="2" t="s">
-        <v>44</v>
+      <c r="D226" s="3" t="s">
+        <v>136</v>
       </c>
       <c r="E226" s="2" t="s">
-        <v>55</v>
+        <v>36</v>
       </c>
       <c r="F226" s="4">
         <v>1</v>
@@ -7851,16 +7851,16 @@
         <v>221</v>
       </c>
       <c r="B227" s="2" t="s">
-        <v>116</v>
+        <v>97</v>
       </c>
       <c r="C227" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="D227" s="2" t="s">
-        <v>44</v>
+      <c r="D227" s="3" t="s">
+        <v>136</v>
       </c>
       <c r="E227" s="2" t="s">
-        <v>55</v>
+        <v>36</v>
       </c>
       <c r="F227" s="4">
         <v>1</v>
@@ -7880,16 +7880,16 @@
         <v>222</v>
       </c>
       <c r="B228" s="2" t="s">
-        <v>116</v>
+        <v>97</v>
       </c>
       <c r="C228" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="D228" s="2" t="s">
-        <v>44</v>
+      <c r="D228" s="3" t="s">
+        <v>136</v>
       </c>
       <c r="E228" s="2" t="s">
-        <v>143</v>
+        <v>124</v>
       </c>
       <c r="F228" s="4">
         <v>1</v>
@@ -7909,16 +7909,16 @@
         <v>223</v>
       </c>
       <c r="B229" s="2" t="s">
-        <v>116</v>
+        <v>97</v>
       </c>
       <c r="C229" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="D229" s="2" t="s">
-        <v>44</v>
+      <c r="D229" s="3" t="s">
+        <v>136</v>
       </c>
       <c r="E229" s="2" t="s">
-        <v>55</v>
+        <v>36</v>
       </c>
       <c r="F229" s="4">
         <v>1</v>
@@ -7938,16 +7938,16 @@
         <v>224</v>
       </c>
       <c r="B230" s="2" t="s">
-        <v>116</v>
+        <v>97</v>
       </c>
       <c r="C230" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="D230" s="2" t="s">
-        <v>44</v>
+      <c r="D230" s="3" t="s">
+        <v>136</v>
       </c>
       <c r="E230" s="2" t="s">
-        <v>143</v>
+        <v>124</v>
       </c>
       <c r="F230" s="4">
         <v>1</v>
@@ -7967,16 +7967,16 @@
         <v>225</v>
       </c>
       <c r="B231" s="2" t="s">
-        <v>117</v>
+        <v>98</v>
       </c>
       <c r="C231" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="D231" s="2" t="s">
-        <v>44</v>
+      <c r="D231" s="3" t="s">
+        <v>136</v>
       </c>
       <c r="E231" s="2" t="s">
-        <v>55</v>
+        <v>36</v>
       </c>
       <c r="F231" s="4">
         <v>1</v>
@@ -7996,16 +7996,16 @@
         <v>226</v>
       </c>
       <c r="B232" s="2" t="s">
-        <v>117</v>
+        <v>98</v>
       </c>
       <c r="C232" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="D232" s="2" t="s">
-        <v>44</v>
+      <c r="D232" s="3" t="s">
+        <v>136</v>
       </c>
       <c r="E232" s="2" t="s">
-        <v>143</v>
+        <v>124</v>
       </c>
       <c r="F232" s="4">
         <v>3</v>
@@ -8025,16 +8025,16 @@
         <v>227</v>
       </c>
       <c r="B233" s="2" t="s">
-        <v>117</v>
+        <v>98</v>
       </c>
       <c r="C233" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="D233" s="2" t="s">
-        <v>44</v>
+      <c r="D233" s="3" t="s">
+        <v>136</v>
       </c>
       <c r="E233" s="2" t="s">
-        <v>143</v>
+        <v>124</v>
       </c>
       <c r="F233" s="4">
         <v>1</v>
@@ -8054,16 +8054,16 @@
         <v>228</v>
       </c>
       <c r="B234" s="2" t="s">
-        <v>117</v>
+        <v>98</v>
       </c>
       <c r="C234" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="D234" s="2" t="s">
-        <v>44</v>
+      <c r="D234" s="3" t="s">
+        <v>136</v>
       </c>
       <c r="E234" s="2" t="s">
-        <v>55</v>
+        <v>36</v>
       </c>
       <c r="F234" s="4">
         <v>1</v>
@@ -8083,16 +8083,16 @@
         <v>229</v>
       </c>
       <c r="B235" s="2" t="s">
-        <v>118</v>
+        <v>99</v>
       </c>
       <c r="C235" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="D235" s="2" t="s">
-        <v>45</v>
+      <c r="D235" s="3" t="s">
+        <v>137</v>
       </c>
       <c r="E235" s="2" t="s">
-        <v>143</v>
+        <v>124</v>
       </c>
       <c r="F235" s="4">
         <v>1</v>
@@ -8112,16 +8112,16 @@
         <v>230</v>
       </c>
       <c r="B236" s="2" t="s">
-        <v>118</v>
+        <v>99</v>
       </c>
       <c r="C236" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="D236" s="2" t="s">
-        <v>45</v>
+      <c r="D236" s="3" t="s">
+        <v>137</v>
       </c>
       <c r="E236" s="2" t="s">
-        <v>143</v>
+        <v>124</v>
       </c>
       <c r="F236" s="4">
         <v>3</v>
@@ -8141,16 +8141,16 @@
         <v>231</v>
       </c>
       <c r="B237" s="2" t="s">
-        <v>118</v>
+        <v>99</v>
       </c>
       <c r="C237" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="D237" s="2" t="s">
-        <v>45</v>
+      <c r="D237" s="3" t="s">
+        <v>137</v>
       </c>
       <c r="E237" s="2" t="s">
-        <v>143</v>
+        <v>124</v>
       </c>
       <c r="F237" s="4">
         <v>1</v>
@@ -8170,16 +8170,16 @@
         <v>232</v>
       </c>
       <c r="B238" s="2" t="s">
-        <v>118</v>
+        <v>99</v>
       </c>
       <c r="C238" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="D238" s="2" t="s">
-        <v>45</v>
+      <c r="D238" s="3" t="s">
+        <v>137</v>
       </c>
       <c r="E238" s="2" t="s">
-        <v>55</v>
+        <v>36</v>
       </c>
       <c r="F238" s="4">
         <v>1</v>
@@ -8199,16 +8199,16 @@
         <v>233</v>
       </c>
       <c r="B239" s="2" t="s">
-        <v>119</v>
+        <v>100</v>
       </c>
       <c r="C239" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="D239" s="2" t="s">
-        <v>45</v>
+      <c r="D239" s="3" t="s">
+        <v>137</v>
       </c>
       <c r="E239" s="2" t="s">
-        <v>55</v>
+        <v>36</v>
       </c>
       <c r="F239" s="4">
         <v>1</v>
@@ -8228,16 +8228,16 @@
         <v>234</v>
       </c>
       <c r="B240" s="2" t="s">
-        <v>119</v>
+        <v>100</v>
       </c>
       <c r="C240" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="D240" s="2" t="s">
-        <v>45</v>
+      <c r="D240" s="3" t="s">
+        <v>137</v>
       </c>
       <c r="E240" s="2" t="s">
-        <v>143</v>
+        <v>124</v>
       </c>
       <c r="F240" s="4">
         <v>1</v>
@@ -8257,16 +8257,16 @@
         <v>235</v>
       </c>
       <c r="B241" s="2" t="s">
-        <v>120</v>
+        <v>101</v>
       </c>
       <c r="C241" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="D241" s="2" t="s">
-        <v>45</v>
+      <c r="D241" s="3" t="s">
+        <v>137</v>
       </c>
       <c r="E241" s="2" t="s">
-        <v>55</v>
+        <v>36</v>
       </c>
       <c r="F241" s="4">
         <v>1</v>
@@ -8286,16 +8286,16 @@
         <v>236</v>
       </c>
       <c r="B242" s="2" t="s">
-        <v>120</v>
+        <v>101</v>
       </c>
       <c r="C242" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="D242" s="2" t="s">
-        <v>45</v>
+      <c r="D242" s="3" t="s">
+        <v>137</v>
       </c>
       <c r="E242" s="2" t="s">
-        <v>143</v>
+        <v>124</v>
       </c>
       <c r="F242" s="4">
         <v>1</v>
@@ -8315,16 +8315,16 @@
         <v>237</v>
       </c>
       <c r="B243" s="2" t="s">
-        <v>120</v>
+        <v>101</v>
       </c>
       <c r="C243" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="D243" s="2" t="s">
-        <v>45</v>
+      <c r="D243" s="3" t="s">
+        <v>137</v>
       </c>
       <c r="E243" s="2" t="s">
-        <v>55</v>
+        <v>36</v>
       </c>
       <c r="F243" s="4">
         <v>1</v>
@@ -8344,16 +8344,16 @@
         <v>238</v>
       </c>
       <c r="B244" s="2" t="s">
-        <v>121</v>
+        <v>102</v>
       </c>
       <c r="C244" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="D244" s="2" t="s">
-        <v>46</v>
+      <c r="D244" s="3" t="s">
+        <v>138</v>
       </c>
       <c r="E244" s="2" t="s">
-        <v>55</v>
+        <v>36</v>
       </c>
       <c r="F244" s="4">
         <v>4</v>
@@ -8373,16 +8373,16 @@
         <v>239</v>
       </c>
       <c r="B245" s="2" t="s">
-        <v>121</v>
+        <v>102</v>
       </c>
       <c r="C245" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="D245" s="2" t="s">
-        <v>46</v>
+      <c r="D245" s="3" t="s">
+        <v>138</v>
       </c>
       <c r="E245" s="2" t="s">
-        <v>143</v>
+        <v>124</v>
       </c>
       <c r="F245" s="4">
         <v>3</v>
@@ -8402,16 +8402,16 @@
         <v>240</v>
       </c>
       <c r="B246" s="2" t="s">
-        <v>122</v>
+        <v>103</v>
       </c>
       <c r="C246" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="D246" s="2" t="s">
-        <v>46</v>
+      <c r="D246" s="3" t="s">
+        <v>138</v>
       </c>
       <c r="E246" s="2" t="s">
-        <v>54</v>
+        <v>35</v>
       </c>
       <c r="F246" s="4">
         <v>2.4</v>
@@ -8431,16 +8431,16 @@
         <v>241</v>
       </c>
       <c r="B247" s="2" t="s">
-        <v>122</v>
+        <v>103</v>
       </c>
       <c r="C247" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="D247" s="2" t="s">
-        <v>46</v>
+      <c r="D247" s="3" t="s">
+        <v>138</v>
       </c>
       <c r="E247" s="2" t="s">
-        <v>55</v>
+        <v>36</v>
       </c>
       <c r="F247" s="4">
         <v>2</v>
@@ -8460,16 +8460,16 @@
         <v>242</v>
       </c>
       <c r="B248" s="2" t="s">
-        <v>122</v>
+        <v>103</v>
       </c>
       <c r="C248" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="D248" s="2" t="s">
-        <v>46</v>
+      <c r="D248" s="3" t="s">
+        <v>138</v>
       </c>
       <c r="E248" s="2" t="s">
-        <v>143</v>
+        <v>124</v>
       </c>
       <c r="F248" s="4">
         <v>3</v>
@@ -8489,16 +8489,16 @@
         <v>243</v>
       </c>
       <c r="B249" s="2" t="s">
-        <v>122</v>
+        <v>103</v>
       </c>
       <c r="C249" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="D249" s="2" t="s">
-        <v>46</v>
+      <c r="D249" s="3" t="s">
+        <v>138</v>
       </c>
       <c r="E249" s="2" t="s">
-        <v>143</v>
+        <v>124</v>
       </c>
       <c r="F249" s="4">
         <v>1</v>
@@ -8518,16 +8518,16 @@
         <v>244</v>
       </c>
       <c r="B250" s="2" t="s">
-        <v>122</v>
+        <v>103</v>
       </c>
       <c r="C250" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="D250" s="2" t="s">
-        <v>46</v>
+      <c r="D250" s="3" t="s">
+        <v>138</v>
       </c>
       <c r="E250" s="2" t="s">
-        <v>54</v>
+        <v>35</v>
       </c>
       <c r="F250" s="4">
         <v>2</v>
@@ -8547,16 +8547,16 @@
         <v>245</v>
       </c>
       <c r="B251" s="2" t="s">
-        <v>123</v>
+        <v>104</v>
       </c>
       <c r="C251" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="D251" s="2" t="s">
-        <v>46</v>
+      <c r="D251" s="3" t="s">
+        <v>138</v>
       </c>
       <c r="E251" s="2" t="s">
-        <v>54</v>
+        <v>35</v>
       </c>
       <c r="F251" s="4">
         <v>0.15</v>
@@ -8576,16 +8576,16 @@
         <v>246</v>
       </c>
       <c r="B252" s="2" t="s">
-        <v>123</v>
+        <v>104</v>
       </c>
       <c r="C252" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="D252" s="2" t="s">
-        <v>46</v>
+      <c r="D252" s="3" t="s">
+        <v>138</v>
       </c>
       <c r="E252" s="2" t="s">
-        <v>55</v>
+        <v>36</v>
       </c>
       <c r="F252" s="4">
         <v>1</v>
@@ -8605,16 +8605,16 @@
         <v>247</v>
       </c>
       <c r="B253" s="2" t="s">
-        <v>123</v>
+        <v>104</v>
       </c>
       <c r="C253" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="D253" s="2" t="s">
-        <v>46</v>
+      <c r="D253" s="3" t="s">
+        <v>138</v>
       </c>
       <c r="E253" s="2" t="s">
-        <v>143</v>
+        <v>124</v>
       </c>
       <c r="F253" s="4">
         <v>4</v>
@@ -8634,16 +8634,16 @@
         <v>248</v>
       </c>
       <c r="B254" s="2" t="s">
-        <v>124</v>
+        <v>105</v>
       </c>
       <c r="C254" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="D254" s="2" t="s">
-        <v>46</v>
+        <v>28</v>
+      </c>
+      <c r="D254" s="3" t="s">
+        <v>138</v>
       </c>
       <c r="E254" s="2" t="s">
-        <v>143</v>
+        <v>124</v>
       </c>
       <c r="F254" s="4">
         <v>1</v>
@@ -8663,16 +8663,16 @@
         <v>249</v>
       </c>
       <c r="B255" s="2" t="s">
-        <v>124</v>
+        <v>105</v>
       </c>
       <c r="C255" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="D255" s="2" t="s">
-        <v>46</v>
+        <v>28</v>
+      </c>
+      <c r="D255" s="3" t="s">
+        <v>138</v>
       </c>
       <c r="E255" s="2" t="s">
-        <v>55</v>
+        <v>36</v>
       </c>
       <c r="F255" s="4">
         <v>1</v>
@@ -8692,16 +8692,16 @@
         <v>250</v>
       </c>
       <c r="B256" s="2" t="s">
-        <v>125</v>
+        <v>106</v>
       </c>
       <c r="C256" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="D256" s="2" t="s">
-        <v>46</v>
+      <c r="D256" s="3" t="s">
+        <v>138</v>
       </c>
       <c r="E256" s="2" t="s">
-        <v>54</v>
+        <v>35</v>
       </c>
       <c r="F256" s="4">
         <v>2</v>
@@ -8721,16 +8721,16 @@
         <v>251</v>
       </c>
       <c r="B257" s="2" t="s">
-        <v>125</v>
+        <v>106</v>
       </c>
       <c r="C257" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="D257" s="2" t="s">
-        <v>46</v>
+      <c r="D257" s="3" t="s">
+        <v>138</v>
       </c>
       <c r="E257" s="2" t="s">
-        <v>143</v>
+        <v>124</v>
       </c>
       <c r="F257" s="4">
         <v>12</v>
@@ -8750,16 +8750,16 @@
         <v>252</v>
       </c>
       <c r="B258" s="2" t="s">
-        <v>125</v>
+        <v>106</v>
       </c>
       <c r="C258" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="D258" s="2" t="s">
-        <v>46</v>
+      <c r="D258" s="3" t="s">
+        <v>138</v>
       </c>
       <c r="E258" s="2" t="s">
-        <v>143</v>
+        <v>124</v>
       </c>
       <c r="F258" s="4">
         <v>2</v>
@@ -8779,16 +8779,16 @@
         <v>253</v>
       </c>
       <c r="B259" s="2" t="s">
-        <v>126</v>
+        <v>107</v>
       </c>
       <c r="C259" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="D259" s="2" t="s">
-        <v>46</v>
+      <c r="D259" s="3" t="s">
+        <v>138</v>
       </c>
       <c r="E259" s="2" t="s">
-        <v>143</v>
+        <v>124</v>
       </c>
       <c r="F259" s="4">
         <v>1</v>
@@ -8808,16 +8808,16 @@
         <v>254</v>
       </c>
       <c r="B260" s="2" t="s">
-        <v>126</v>
+        <v>107</v>
       </c>
       <c r="C260" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="D260" s="2" t="s">
-        <v>46</v>
+      <c r="D260" s="3" t="s">
+        <v>138</v>
       </c>
       <c r="E260" s="2" t="s">
-        <v>143</v>
+        <v>124</v>
       </c>
       <c r="F260" s="4">
         <v>3</v>
@@ -8837,16 +8837,16 @@
         <v>255</v>
       </c>
       <c r="B261" s="2" t="s">
-        <v>127</v>
+        <v>108</v>
       </c>
       <c r="C261" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="D261" s="2" t="s">
-        <v>47</v>
+      <c r="D261" s="3" t="s">
+        <v>139</v>
       </c>
       <c r="E261" s="2" t="s">
-        <v>54</v>
+        <v>35</v>
       </c>
       <c r="F261" s="4">
         <v>1.54</v>
@@ -8866,16 +8866,16 @@
         <v>256</v>
       </c>
       <c r="B262" s="2" t="s">
-        <v>127</v>
+        <v>108</v>
       </c>
       <c r="C262" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="D262" s="2" t="s">
-        <v>47</v>
+      <c r="D262" s="3" t="s">
+        <v>139</v>
       </c>
       <c r="E262" s="2" t="s">
-        <v>143</v>
+        <v>124</v>
       </c>
       <c r="F262" s="4">
         <v>12</v>
@@ -8895,16 +8895,16 @@
         <v>257</v>
       </c>
       <c r="B263" s="2" t="s">
-        <v>127</v>
+        <v>108</v>
       </c>
       <c r="C263" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="D263" s="2" t="s">
-        <v>47</v>
+      <c r="D263" s="3" t="s">
+        <v>139</v>
       </c>
       <c r="E263" s="2" t="s">
-        <v>55</v>
+        <v>36</v>
       </c>
       <c r="F263" s="4">
         <v>1</v>
@@ -8924,16 +8924,16 @@
         <v>258</v>
       </c>
       <c r="B264" s="2" t="s">
-        <v>127</v>
+        <v>108</v>
       </c>
       <c r="C264" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="D264" s="2" t="s">
-        <v>47</v>
+      <c r="D264" s="3" t="s">
+        <v>139</v>
       </c>
       <c r="E264" s="2" t="s">
-        <v>55</v>
+        <v>36</v>
       </c>
       <c r="F264" s="4">
         <v>1</v>
@@ -8953,16 +8953,16 @@
         <v>259</v>
       </c>
       <c r="B265" s="2" t="s">
-        <v>127</v>
+        <v>108</v>
       </c>
       <c r="C265" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="D265" s="2" t="s">
-        <v>47</v>
+      <c r="D265" s="3" t="s">
+        <v>139</v>
       </c>
       <c r="E265" s="2" t="s">
-        <v>143</v>
+        <v>124</v>
       </c>
       <c r="F265" s="4">
         <v>1</v>
@@ -8982,16 +8982,16 @@
         <v>260</v>
       </c>
       <c r="B266" s="2" t="s">
-        <v>128</v>
+        <v>109</v>
       </c>
       <c r="C266" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="D266" s="2" t="s">
-        <v>47</v>
+      <c r="D266" s="3" t="s">
+        <v>139</v>
       </c>
       <c r="E266" s="2" t="s">
-        <v>143</v>
+        <v>124</v>
       </c>
       <c r="F266" s="4">
         <v>1</v>
@@ -9011,16 +9011,16 @@
         <v>261</v>
       </c>
       <c r="B267" s="2" t="s">
-        <v>128</v>
+        <v>109</v>
       </c>
       <c r="C267" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="D267" s="2" t="s">
-        <v>47</v>
+      <c r="D267" s="3" t="s">
+        <v>139</v>
       </c>
       <c r="E267" s="2" t="s">
-        <v>143</v>
+        <v>124</v>
       </c>
       <c r="F267" s="4">
         <v>2</v>
@@ -9040,16 +9040,16 @@
         <v>262</v>
       </c>
       <c r="B268" s="2" t="s">
-        <v>129</v>
+        <v>110</v>
       </c>
       <c r="C268" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="D268" s="2" t="s">
-        <v>47</v>
+        <v>34</v>
+      </c>
+      <c r="D268" s="3" t="s">
+        <v>139</v>
       </c>
       <c r="E268" s="2" t="s">
-        <v>143</v>
+        <v>124</v>
       </c>
       <c r="F268" s="4">
         <v>1</v>
@@ -9069,16 +9069,16 @@
         <v>263</v>
       </c>
       <c r="B269" s="2" t="s">
-        <v>129</v>
+        <v>110</v>
       </c>
       <c r="C269" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="D269" s="2" t="s">
-        <v>47</v>
+        <v>34</v>
+      </c>
+      <c r="D269" s="3" t="s">
+        <v>139</v>
       </c>
       <c r="E269" s="2" t="s">
-        <v>143</v>
+        <v>124</v>
       </c>
       <c r="F269" s="4">
         <v>5</v>
@@ -9098,16 +9098,16 @@
         <v>264</v>
       </c>
       <c r="B270" s="2" t="s">
-        <v>130</v>
+        <v>111</v>
       </c>
       <c r="C270" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="D270" s="2" t="s">
-        <v>49</v>
+      <c r="D270" s="3" t="s">
+        <v>140</v>
       </c>
       <c r="E270" s="2" t="s">
-        <v>143</v>
+        <v>124</v>
       </c>
       <c r="F270" s="4">
         <v>1</v>
@@ -9127,16 +9127,16 @@
         <v>265</v>
       </c>
       <c r="B271" s="2" t="s">
-        <v>130</v>
+        <v>111</v>
       </c>
       <c r="C271" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="D271" s="2" t="s">
-        <v>49</v>
+      <c r="D271" s="3" t="s">
+        <v>140</v>
       </c>
       <c r="E271" s="2" t="s">
-        <v>55</v>
+        <v>36</v>
       </c>
       <c r="F271" s="4">
         <v>3</v>
@@ -9156,16 +9156,16 @@
         <v>266</v>
       </c>
       <c r="B272" s="2" t="s">
-        <v>130</v>
+        <v>111</v>
       </c>
       <c r="C272" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="D272" s="2" t="s">
-        <v>49</v>
+      <c r="D272" s="3" t="s">
+        <v>140</v>
       </c>
       <c r="E272" s="2" t="s">
-        <v>55</v>
+        <v>36</v>
       </c>
       <c r="F272" s="4">
         <v>1</v>
@@ -9185,16 +9185,16 @@
         <v>267</v>
       </c>
       <c r="B273" s="2" t="s">
-        <v>131</v>
+        <v>112</v>
       </c>
       <c r="C273" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="D273" s="2" t="s">
-        <v>49</v>
+      <c r="D273" s="3" t="s">
+        <v>140</v>
       </c>
       <c r="E273" s="2" t="s">
-        <v>143</v>
+        <v>124</v>
       </c>
       <c r="F273" s="4">
         <v>4</v>
@@ -9214,16 +9214,16 @@
         <v>268</v>
       </c>
       <c r="B274" s="2" t="s">
-        <v>131</v>
+        <v>112</v>
       </c>
       <c r="C274" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="D274" s="2" t="s">
-        <v>49</v>
+      <c r="D274" s="3" t="s">
+        <v>140</v>
       </c>
       <c r="E274" s="2" t="s">
-        <v>55</v>
+        <v>36</v>
       </c>
       <c r="F274" s="4">
         <v>1</v>
@@ -9243,16 +9243,16 @@
         <v>269</v>
       </c>
       <c r="B275" s="2" t="s">
-        <v>131</v>
+        <v>112</v>
       </c>
       <c r="C275" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="D275" s="2" t="s">
-        <v>49</v>
+      <c r="D275" s="3" t="s">
+        <v>140</v>
       </c>
       <c r="E275" s="2" t="s">
-        <v>55</v>
+        <v>36</v>
       </c>
       <c r="F275" s="4">
         <v>1</v>
@@ -9272,16 +9272,16 @@
         <v>270</v>
       </c>
       <c r="B276" s="2" t="s">
-        <v>131</v>
+        <v>112</v>
       </c>
       <c r="C276" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="D276" s="2" t="s">
-        <v>49</v>
+      <c r="D276" s="3" t="s">
+        <v>140</v>
       </c>
       <c r="E276" s="2" t="s">
-        <v>55</v>
+        <v>36</v>
       </c>
       <c r="F276" s="4">
         <v>1</v>
@@ -9301,16 +9301,16 @@
         <v>271</v>
       </c>
       <c r="B277" s="2" t="s">
-        <v>131</v>
+        <v>112</v>
       </c>
       <c r="C277" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="D277" s="2" t="s">
-        <v>49</v>
+      <c r="D277" s="3" t="s">
+        <v>140</v>
       </c>
       <c r="E277" s="2" t="s">
-        <v>55</v>
+        <v>36</v>
       </c>
       <c r="F277" s="4">
         <v>1</v>
@@ -9330,16 +9330,16 @@
         <v>272</v>
       </c>
       <c r="B278" s="2" t="s">
-        <v>131</v>
+        <v>112</v>
       </c>
       <c r="C278" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="D278" s="2" t="s">
-        <v>49</v>
+      <c r="D278" s="3" t="s">
+        <v>140</v>
       </c>
       <c r="E278" s="2" t="s">
-        <v>55</v>
+        <v>36</v>
       </c>
       <c r="F278" s="4">
         <v>1</v>
@@ -9359,16 +9359,16 @@
         <v>273</v>
       </c>
       <c r="B279" s="2" t="s">
-        <v>131</v>
+        <v>112</v>
       </c>
       <c r="C279" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="D279" s="2" t="s">
-        <v>49</v>
+      <c r="D279" s="3" t="s">
+        <v>140</v>
       </c>
       <c r="E279" s="2" t="s">
-        <v>55</v>
+        <v>36</v>
       </c>
       <c r="F279" s="4">
         <v>1</v>
@@ -9388,16 +9388,16 @@
         <v>274</v>
       </c>
       <c r="B280" s="2" t="s">
-        <v>132</v>
+        <v>113</v>
       </c>
       <c r="C280" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="D280" s="2" t="s">
-        <v>49</v>
+      <c r="D280" s="3" t="s">
+        <v>140</v>
       </c>
       <c r="E280" s="2" t="s">
-        <v>54</v>
+        <v>35</v>
       </c>
       <c r="F280" s="4">
         <v>0.3</v>
@@ -9417,16 +9417,16 @@
         <v>275</v>
       </c>
       <c r="B281" s="2" t="s">
-        <v>132</v>
+        <v>113</v>
       </c>
       <c r="C281" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="D281" s="2" t="s">
-        <v>49</v>
+      <c r="D281" s="3" t="s">
+        <v>140</v>
       </c>
       <c r="E281" s="2" t="s">
-        <v>143</v>
+        <v>124</v>
       </c>
       <c r="F281" s="4">
         <v>2</v>
@@ -9446,16 +9446,16 @@
         <v>276</v>
       </c>
       <c r="B282" s="2" t="s">
-        <v>132</v>
+        <v>113</v>
       </c>
       <c r="C282" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="D282" s="2" t="s">
-        <v>49</v>
+      <c r="D282" s="3" t="s">
+        <v>140</v>
       </c>
       <c r="E282" s="2" t="s">
-        <v>143</v>
+        <v>124</v>
       </c>
       <c r="F282" s="4">
         <v>2</v>
@@ -9475,16 +9475,16 @@
         <v>277</v>
       </c>
       <c r="B283" s="2" t="s">
-        <v>132</v>
+        <v>113</v>
       </c>
       <c r="C283" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="D283" s="2" t="s">
-        <v>49</v>
+      <c r="D283" s="3" t="s">
+        <v>140</v>
       </c>
       <c r="E283" s="2" t="s">
-        <v>143</v>
+        <v>124</v>
       </c>
       <c r="F283" s="4">
         <v>2</v>
@@ -9504,16 +9504,16 @@
         <v>278</v>
       </c>
       <c r="B284" s="2" t="s">
-        <v>133</v>
+        <v>114</v>
       </c>
       <c r="C284" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="D284" s="2" t="s">
-        <v>49</v>
+        <v>33</v>
+      </c>
+      <c r="D284" s="3" t="s">
+        <v>140</v>
       </c>
       <c r="E284" s="2" t="s">
-        <v>54</v>
+        <v>35</v>
       </c>
       <c r="F284" s="4">
         <v>2.21</v>
@@ -9533,16 +9533,16 @@
         <v>279</v>
       </c>
       <c r="B285" s="2" t="s">
-        <v>133</v>
+        <v>114</v>
       </c>
       <c r="C285" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="D285" s="2" t="s">
-        <v>49</v>
+        <v>33</v>
+      </c>
+      <c r="D285" s="3" t="s">
+        <v>140</v>
       </c>
       <c r="E285" s="2" t="s">
-        <v>143</v>
+        <v>124</v>
       </c>
       <c r="F285" s="4">
         <v>1</v>
@@ -9562,16 +9562,16 @@
         <v>280</v>
       </c>
       <c r="B286" s="2" t="s">
-        <v>133</v>
+        <v>114</v>
       </c>
       <c r="C286" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="D286" s="2" t="s">
-        <v>49</v>
+        <v>33</v>
+      </c>
+      <c r="D286" s="3" t="s">
+        <v>140</v>
       </c>
       <c r="E286" s="2" t="s">
-        <v>143</v>
+        <v>124</v>
       </c>
       <c r="F286" s="4">
         <v>4</v>
@@ -9591,16 +9591,16 @@
         <v>281</v>
       </c>
       <c r="B287" s="2" t="s">
-        <v>133</v>
+        <v>114</v>
       </c>
       <c r="C287" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="D287" s="2" t="s">
-        <v>49</v>
+        <v>33</v>
+      </c>
+      <c r="D287" s="3" t="s">
+        <v>140</v>
       </c>
       <c r="E287" s="2" t="s">
-        <v>54</v>
+        <v>35</v>
       </c>
       <c r="F287" s="4">
         <v>2</v>
@@ -9620,16 +9620,16 @@
         <v>282</v>
       </c>
       <c r="B288" s="2" t="s">
-        <v>134</v>
+        <v>115</v>
       </c>
       <c r="C288" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="D288" s="2" t="s">
-        <v>50</v>
+      <c r="D288" s="3" t="s">
+        <v>141</v>
       </c>
       <c r="E288" s="2" t="s">
-        <v>143</v>
+        <v>124</v>
       </c>
       <c r="F288" s="4">
         <v>24</v>
@@ -9649,16 +9649,16 @@
         <v>283</v>
       </c>
       <c r="B289" s="2" t="s">
-        <v>134</v>
+        <v>115</v>
       </c>
       <c r="C289" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="D289" s="2" t="s">
-        <v>50</v>
+      <c r="D289" s="3" t="s">
+        <v>141</v>
       </c>
       <c r="E289" s="2" t="s">
-        <v>55</v>
+        <v>36</v>
       </c>
       <c r="F289" s="4">
         <v>1</v>
@@ -9678,16 +9678,16 @@
         <v>284</v>
       </c>
       <c r="B290" s="2" t="s">
-        <v>134</v>
+        <v>115</v>
       </c>
       <c r="C290" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="D290" s="2" t="s">
-        <v>50</v>
+      <c r="D290" s="3" t="s">
+        <v>141</v>
       </c>
       <c r="E290" s="2" t="s">
-        <v>55</v>
+        <v>36</v>
       </c>
       <c r="F290" s="4">
         <v>1</v>
@@ -9707,16 +9707,16 @@
         <v>285</v>
       </c>
       <c r="B291" s="2" t="s">
-        <v>134</v>
+        <v>115</v>
       </c>
       <c r="C291" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="D291" s="2" t="s">
-        <v>50</v>
+      <c r="D291" s="3" t="s">
+        <v>141</v>
       </c>
       <c r="E291" s="2" t="s">
-        <v>55</v>
+        <v>36</v>
       </c>
       <c r="F291" s="4">
         <v>1</v>
@@ -9736,16 +9736,16 @@
         <v>286</v>
       </c>
       <c r="B292" s="2" t="s">
-        <v>135</v>
+        <v>116</v>
       </c>
       <c r="C292" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="D292" s="2" t="s">
-        <v>50</v>
+      <c r="D292" s="3" t="s">
+        <v>141</v>
       </c>
       <c r="E292" s="2" t="s">
-        <v>54</v>
+        <v>35</v>
       </c>
       <c r="F292" s="4">
         <v>0.4</v>
@@ -9765,16 +9765,16 @@
         <v>287</v>
       </c>
       <c r="B293" s="2" t="s">
-        <v>135</v>
+        <v>116</v>
       </c>
       <c r="C293" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="D293" s="2" t="s">
-        <v>50</v>
+      <c r="D293" s="3" t="s">
+        <v>141</v>
       </c>
       <c r="E293" s="2" t="s">
-        <v>143</v>
+        <v>124</v>
       </c>
       <c r="F293" s="4">
         <v>1</v>
@@ -9794,16 +9794,16 @@
         <v>288</v>
       </c>
       <c r="B294" s="2" t="s">
-        <v>135</v>
+        <v>116</v>
       </c>
       <c r="C294" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="D294" s="2" t="s">
-        <v>50</v>
+      <c r="D294" s="3" t="s">
+        <v>141</v>
       </c>
       <c r="E294" s="2" t="s">
-        <v>143</v>
+        <v>124</v>
       </c>
       <c r="F294" s="4">
         <v>2</v>
@@ -9823,16 +9823,16 @@
         <v>289</v>
       </c>
       <c r="B295" s="2" t="s">
-        <v>136</v>
+        <v>117</v>
       </c>
       <c r="C295" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="D295" s="2" t="s">
-        <v>50</v>
+      <c r="D295" s="3" t="s">
+        <v>141</v>
       </c>
       <c r="E295" s="2" t="s">
-        <v>143</v>
+        <v>124</v>
       </c>
       <c r="F295" s="4">
         <v>1</v>
@@ -9852,16 +9852,16 @@
         <v>290</v>
       </c>
       <c r="B296" s="2" t="s">
-        <v>137</v>
+        <v>118</v>
       </c>
       <c r="C296" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="D296" s="2" t="s">
-        <v>50</v>
+      <c r="D296" s="3" t="s">
+        <v>141</v>
       </c>
       <c r="E296" s="2" t="s">
-        <v>54</v>
+        <v>35</v>
       </c>
       <c r="F296" s="4">
         <v>3.21</v>
@@ -9881,16 +9881,16 @@
         <v>291</v>
       </c>
       <c r="B297" s="2" t="s">
-        <v>137</v>
+        <v>118</v>
       </c>
       <c r="C297" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="D297" s="2" t="s">
-        <v>50</v>
+      <c r="D297" s="3" t="s">
+        <v>141</v>
       </c>
       <c r="E297" s="2" t="s">
-        <v>143</v>
+        <v>124</v>
       </c>
       <c r="F297" s="4">
         <v>1</v>
@@ -9910,16 +9910,16 @@
         <v>292</v>
       </c>
       <c r="B298" s="2" t="s">
-        <v>137</v>
+        <v>118</v>
       </c>
       <c r="C298" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="D298" s="2" t="s">
-        <v>50</v>
+      <c r="D298" s="3" t="s">
+        <v>141</v>
       </c>
       <c r="E298" s="2" t="s">
-        <v>143</v>
+        <v>124</v>
       </c>
       <c r="F298" s="4">
         <v>3</v>
@@ -9939,16 +9939,16 @@
         <v>293</v>
       </c>
       <c r="B299" s="2" t="s">
-        <v>137</v>
+        <v>118</v>
       </c>
       <c r="C299" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="D299" s="2" t="s">
-        <v>50</v>
+      <c r="D299" s="3" t="s">
+        <v>141</v>
       </c>
       <c r="E299" s="2" t="s">
-        <v>55</v>
+        <v>36</v>
       </c>
       <c r="F299" s="4">
         <v>1</v>
@@ -9968,16 +9968,16 @@
         <v>294</v>
       </c>
       <c r="B300" s="2" t="s">
-        <v>137</v>
+        <v>118</v>
       </c>
       <c r="C300" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="D300" s="2" t="s">
-        <v>50</v>
+      <c r="D300" s="3" t="s">
+        <v>141</v>
       </c>
       <c r="E300" s="2" t="s">
-        <v>55</v>
+        <v>36</v>
       </c>
       <c r="F300" s="4">
         <v>1</v>
@@ -9997,16 +9997,16 @@
         <v>295</v>
       </c>
       <c r="B301" s="2" t="s">
-        <v>137</v>
+        <v>118</v>
       </c>
       <c r="C301" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="D301" s="2" t="s">
-        <v>50</v>
+      <c r="D301" s="3" t="s">
+        <v>141</v>
       </c>
       <c r="E301" s="2" t="s">
-        <v>54</v>
+        <v>35</v>
       </c>
       <c r="F301" s="4">
         <v>2</v>
@@ -10026,16 +10026,16 @@
         <v>296</v>
       </c>
       <c r="B302" s="2" t="s">
-        <v>138</v>
+        <v>119</v>
       </c>
       <c r="C302" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="D302" s="2" t="s">
-        <v>51</v>
+      <c r="D302" s="3" t="s">
+        <v>142</v>
       </c>
       <c r="E302" s="2" t="s">
-        <v>54</v>
+        <v>35</v>
       </c>
       <c r="F302" s="4">
         <v>1.41</v>
@@ -10055,16 +10055,16 @@
         <v>297</v>
       </c>
       <c r="B303" s="2" t="s">
-        <v>138</v>
+        <v>119</v>
       </c>
       <c r="C303" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="D303" s="2" t="s">
-        <v>51</v>
+      <c r="D303" s="3" t="s">
+        <v>142</v>
       </c>
       <c r="E303" s="2" t="s">
-        <v>143</v>
+        <v>124</v>
       </c>
       <c r="F303" s="4">
         <v>6</v>
@@ -10084,16 +10084,16 @@
         <v>298</v>
       </c>
       <c r="B304" s="2" t="s">
-        <v>138</v>
+        <v>119</v>
       </c>
       <c r="C304" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="D304" s="2" t="s">
-        <v>51</v>
+      <c r="D304" s="3" t="s">
+        <v>142</v>
       </c>
       <c r="E304" s="2" t="s">
-        <v>55</v>
+        <v>36</v>
       </c>
       <c r="F304" s="4">
         <v>1</v>
@@ -10113,16 +10113,16 @@
         <v>299</v>
       </c>
       <c r="B305" s="2" t="s">
-        <v>138</v>
+        <v>119</v>
       </c>
       <c r="C305" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="D305" s="2" t="s">
-        <v>51</v>
+      <c r="D305" s="3" t="s">
+        <v>142</v>
       </c>
       <c r="E305" s="2" t="s">
-        <v>143</v>
+        <v>124</v>
       </c>
       <c r="F305" s="4">
         <v>1</v>
@@ -10142,16 +10142,16 @@
         <v>300</v>
       </c>
       <c r="B306" s="2" t="s">
-        <v>139</v>
+        <v>120</v>
       </c>
       <c r="C306" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="D306" s="2" t="s">
-        <v>52</v>
+      <c r="D306" s="3" t="s">
+        <v>143</v>
       </c>
       <c r="E306" s="2" t="s">
-        <v>55</v>
+        <v>36</v>
       </c>
       <c r="F306" s="4">
         <v>5</v>
@@ -10171,16 +10171,16 @@
         <v>301</v>
       </c>
       <c r="B307" s="2" t="s">
-        <v>139</v>
+        <v>120</v>
       </c>
       <c r="C307" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="D307" s="2" t="s">
-        <v>52</v>
+      <c r="D307" s="3" t="s">
+        <v>143</v>
       </c>
       <c r="E307" s="2" t="s">
-        <v>143</v>
+        <v>124</v>
       </c>
       <c r="F307" s="4">
         <v>1</v>
@@ -10200,16 +10200,16 @@
         <v>302</v>
       </c>
       <c r="B308" s="2" t="s">
-        <v>139</v>
+        <v>120</v>
       </c>
       <c r="C308" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="D308" s="2" t="s">
-        <v>52</v>
+      <c r="D308" s="3" t="s">
+        <v>143</v>
       </c>
       <c r="E308" s="2" t="s">
-        <v>143</v>
+        <v>124</v>
       </c>
       <c r="F308" s="4">
         <v>3</v>
@@ -10229,16 +10229,16 @@
         <v>303</v>
       </c>
       <c r="B309" s="2" t="s">
-        <v>139</v>
+        <v>120</v>
       </c>
       <c r="C309" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="D309" s="2" t="s">
-        <v>52</v>
+      <c r="D309" s="3" t="s">
+        <v>143</v>
       </c>
       <c r="E309" s="2" t="s">
-        <v>55</v>
+        <v>36</v>
       </c>
       <c r="F309" s="4">
         <v>1</v>
@@ -10258,16 +10258,16 @@
         <v>304</v>
       </c>
       <c r="B310" s="2" t="s">
-        <v>139</v>
+        <v>120</v>
       </c>
       <c r="C310" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="D310" s="2" t="s">
-        <v>52</v>
+      <c r="D310" s="3" t="s">
+        <v>143</v>
       </c>
       <c r="E310" s="2" t="s">
-        <v>55</v>
+        <v>36</v>
       </c>
       <c r="F310" s="4">
         <v>1</v>
@@ -10287,16 +10287,16 @@
         <v>305</v>
       </c>
       <c r="B311" s="2" t="s">
-        <v>139</v>
+        <v>120</v>
       </c>
       <c r="C311" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="D311" s="2" t="s">
-        <v>52</v>
+      <c r="D311" s="3" t="s">
+        <v>143</v>
       </c>
       <c r="E311" s="2" t="s">
-        <v>143</v>
+        <v>124</v>
       </c>
       <c r="F311" s="4">
         <v>12</v>
@@ -10316,16 +10316,16 @@
         <v>306</v>
       </c>
       <c r="B312" s="2" t="s">
-        <v>140</v>
+        <v>121</v>
       </c>
       <c r="C312" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="D312" s="2" t="s">
-        <v>53</v>
+      <c r="D312" s="3" t="s">
+        <v>144</v>
       </c>
       <c r="E312" s="2" t="s">
-        <v>55</v>
+        <v>36</v>
       </c>
       <c r="F312" s="4">
         <v>3</v>
@@ -10345,16 +10345,16 @@
         <v>307</v>
       </c>
       <c r="B313" s="2" t="s">
-        <v>140</v>
+        <v>121</v>
       </c>
       <c r="C313" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="D313" s="2" t="s">
-        <v>53</v>
+      <c r="D313" s="3" t="s">
+        <v>144</v>
       </c>
       <c r="E313" s="2" t="s">
-        <v>143</v>
+        <v>124</v>
       </c>
       <c r="F313" s="4">
         <v>1</v>
@@ -10374,16 +10374,16 @@
         <v>308</v>
       </c>
       <c r="B314" s="2" t="s">
-        <v>140</v>
+        <v>121</v>
       </c>
       <c r="C314" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="D314" s="2" t="s">
-        <v>53</v>
+      <c r="D314" s="3" t="s">
+        <v>144</v>
       </c>
       <c r="E314" s="2" t="s">
-        <v>55</v>
+        <v>36</v>
       </c>
       <c r="F314" s="4">
         <v>1</v>
@@ -10403,16 +10403,16 @@
         <v>309</v>
       </c>
       <c r="B315" s="2" t="s">
-        <v>140</v>
+        <v>121</v>
       </c>
       <c r="C315" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="D315" s="2" t="s">
-        <v>53</v>
+      <c r="D315" s="3" t="s">
+        <v>144</v>
       </c>
       <c r="E315" s="2" t="s">
-        <v>143</v>
+        <v>124</v>
       </c>
       <c r="F315" s="4">
         <v>1</v>
@@ -10432,16 +10432,16 @@
         <v>310</v>
       </c>
       <c r="B316" s="2" t="s">
-        <v>141</v>
+        <v>122</v>
       </c>
       <c r="C316" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="D316" s="2" t="s">
-        <v>53</v>
+      <c r="D316" s="3" t="s">
+        <v>144</v>
       </c>
       <c r="E316" s="2" t="s">
-        <v>54</v>
+        <v>35</v>
       </c>
       <c r="F316" s="4">
         <v>1.29</v>
@@ -10461,16 +10461,16 @@
         <v>311</v>
       </c>
       <c r="B317" s="2" t="s">
-        <v>141</v>
+        <v>122</v>
       </c>
       <c r="C317" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="D317" s="2" t="s">
-        <v>53</v>
+      <c r="D317" s="3" t="s">
+        <v>144</v>
       </c>
       <c r="E317" s="2" t="s">
-        <v>55</v>
+        <v>36</v>
       </c>
       <c r="F317" s="4">
         <v>1</v>
@@ -10490,16 +10490,16 @@
         <v>312</v>
       </c>
       <c r="B318" s="2" t="s">
-        <v>141</v>
+        <v>122</v>
       </c>
       <c r="C318" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="D318" s="2" t="s">
-        <v>53</v>
+      <c r="D318" s="3" t="s">
+        <v>144</v>
       </c>
       <c r="E318" s="2" t="s">
-        <v>55</v>
+        <v>36</v>
       </c>
       <c r="F318" s="4">
         <v>1</v>
@@ -10519,16 +10519,16 @@
         <v>313</v>
       </c>
       <c r="B319" s="2" t="s">
-        <v>141</v>
+        <v>122</v>
       </c>
       <c r="C319" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="D319" s="2" t="s">
-        <v>53</v>
+      <c r="D319" s="3" t="s">
+        <v>144</v>
       </c>
       <c r="E319" s="2" t="s">
-        <v>55</v>
+        <v>36</v>
       </c>
       <c r="F319" s="4">
         <v>1</v>
@@ -10548,16 +10548,16 @@
         <v>314</v>
       </c>
       <c r="B320" s="2" t="s">
-        <v>141</v>
+        <v>122</v>
       </c>
       <c r="C320" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="D320" s="2" t="s">
-        <v>53</v>
+      <c r="D320" s="3" t="s">
+        <v>144</v>
       </c>
       <c r="E320" s="2" t="s">
-        <v>55</v>
+        <v>36</v>
       </c>
       <c r="F320" s="4">
         <v>1</v>
@@ -10577,16 +10577,16 @@
         <v>315</v>
       </c>
       <c r="B321" s="2" t="s">
-        <v>142</v>
+        <v>123</v>
       </c>
       <c r="C321" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="D321" s="2" t="s">
-        <v>53</v>
+      <c r="D321" s="3" t="s">
+        <v>144</v>
       </c>
       <c r="E321" s="2" t="s">
-        <v>143</v>
+        <v>124</v>
       </c>
       <c r="F321" s="4">
         <v>1</v>
